--- a/tests/testthat/test_data/Results.xlsx
+++ b/tests/testthat/test_data/Results.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Cell Percents" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Cell Densities" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Mean Expression" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="H-Score" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Slide Summary'!$1:$1</definedName>
@@ -18,12 +19,13 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Cell Percents'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Cell Densities'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'Mean Expression'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'H-Score'!$1:$3</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Slide ID</t>
   </si>
@@ -89,13 +91,37 @@
   </si>
   <si>
     <t xml:space="preserve">CK+ Membrane PDL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-Score, Membrane PDL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cells per Bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of Total Cells per Bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="50">
+  <numFmts count="58">
     <numFmt numFmtId="50000" formatCode="0%"/>
     <numFmt numFmtId="50001" formatCode="0%"/>
     <numFmt numFmtId="50002" formatCode="0%"/>
@@ -146,6 +172,14 @@
     <numFmt numFmtId="50047" formatCode="0.00"/>
     <numFmt numFmtId="50048" formatCode="0.00"/>
     <numFmt numFmtId="50049" formatCode="0.00"/>
+    <numFmt numFmtId="50050" formatCode="0.0%"/>
+    <numFmt numFmtId="50051" formatCode="0.0%"/>
+    <numFmt numFmtId="50052" formatCode="0.0%"/>
+    <numFmt numFmtId="50053" formatCode="0.0%"/>
+    <numFmt numFmtId="50054" formatCode="0.0%"/>
+    <numFmt numFmtId="50055" formatCode="0.0%"/>
+    <numFmt numFmtId="50056" formatCode="0.0%"/>
+    <numFmt numFmtId="50057" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -175,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -301,11 +335,19 @@
         <color rgb="FF000000"/>
       </top>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -385,6 +427,30 @@
     <xf numFmtId="50047" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="50048" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="50049" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="50050" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50051" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50052" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50053" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50054" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50055" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50056" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50057" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1714,4 +1780,418 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>534</v>
+      </c>
+      <c r="D4" s="18" t="n">
+        <v>189</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <v>91</v>
+      </c>
+      <c r="F4" s="18" t="n">
+        <v>83</v>
+      </c>
+      <c r="G4" s="77" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H4" s="77" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="I4" s="77" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="J4" s="77" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="K4" s="17" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>175</v>
+      </c>
+      <c r="E5" t="n">
+        <v>287</v>
+      </c>
+      <c r="F5" t="n">
+        <v>269</v>
+      </c>
+      <c r="G5" s="80" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H5" s="80" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I5" s="80" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="J5" s="80" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>638</v>
+      </c>
+      <c r="D6" t="n">
+        <v>364</v>
+      </c>
+      <c r="E6" t="n">
+        <v>378</v>
+      </c>
+      <c r="F6" t="n">
+        <v>352</v>
+      </c>
+      <c r="G6" s="80" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="H6" s="80" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I6" s="80" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="J6" s="80" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>219</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>159</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>220</v>
+      </c>
+      <c r="G7" s="78" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="H7" s="78" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I7" s="78" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="J7" s="78" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="K7" s="17" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>109</v>
+      </c>
+      <c r="D8" t="n">
+        <v>313</v>
+      </c>
+      <c r="E8" t="n">
+        <v>421</v>
+      </c>
+      <c r="F8" t="n">
+        <v>437</v>
+      </c>
+      <c r="G8" s="80" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="H8" s="80" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I8" s="80" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="J8" s="80" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>145</v>
+      </c>
+      <c r="D9" t="n">
+        <v>532</v>
+      </c>
+      <c r="E9" t="n">
+        <v>580</v>
+      </c>
+      <c r="F9" t="n">
+        <v>657</v>
+      </c>
+      <c r="G9" s="80" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="H9" s="80" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="I9" s="80" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="J9" s="80" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>199</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>192</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>136</v>
+      </c>
+      <c r="F10" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="G10" s="79" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="H10" s="79" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="I10" s="79" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="J10" s="79" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="K10" s="17" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>382</v>
+      </c>
+      <c r="D11" t="n">
+        <v>275</v>
+      </c>
+      <c r="E11" t="n">
+        <v>270</v>
+      </c>
+      <c r="F11" t="n">
+        <v>275</v>
+      </c>
+      <c r="G11" s="80" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="H11" s="80" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="I11" s="80" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="J11" s="80" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="K11" s="10" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12" t="n">
+        <v>581</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>467</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>406</v>
+      </c>
+      <c r="F12" s="14" t="n">
+        <v>355</v>
+      </c>
+      <c r="G12" s="14" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="I12" s="14" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="J12" s="14" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="K12" s="13" t="n">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="K2:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/tests/testthat/test_data/Results.xlsx
+++ b/tests/testthat/test_data/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Slide ID</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">CD8+ Membrane PDL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ Membrane PD1</t>
   </si>
   <si>
     <t xml:space="preserve">CD68+ Membrane PDL1</t>
@@ -1637,6 +1640,7 @@
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="14.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="14.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="14.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1650,7 +1654,8 @@
         <v>18</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
@@ -1668,6 +1673,9 @@
       <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
@@ -1680,9 +1688,12 @@
         <v>0.856125</v>
       </c>
       <c r="D3" s="61" t="n">
+        <v>7.434</v>
+      </c>
+      <c r="E3" s="61" t="n">
         <v>5.96084615384615</v>
       </c>
-      <c r="E3" s="60" t="n">
+      <c r="F3" s="60" t="n">
         <v>0.947405307599517</v>
       </c>
     </row>
@@ -1697,9 +1708,12 @@
         <v>2.03454545454545</v>
       </c>
       <c r="D4" s="68" t="n">
+        <v>6.93463636363636</v>
+      </c>
+      <c r="E4" s="68" t="n">
         <v>5.03644186046512</v>
       </c>
-      <c r="E4" s="55" t="n">
+      <c r="F4" s="55" t="n">
         <v>2.0013</v>
       </c>
     </row>
@@ -1714,9 +1728,12 @@
         <v>3.3575</v>
       </c>
       <c r="D5" s="64" t="n">
+        <v>2.85891666666667</v>
+      </c>
+      <c r="E5" s="64" t="n">
         <v>8.04607407407407</v>
       </c>
-      <c r="E5" s="63" t="n">
+      <c r="F5" s="63" t="n">
         <v>3.70934630350195</v>
       </c>
     </row>
@@ -1731,9 +1748,12 @@
         <v>2.33060714285714</v>
       </c>
       <c r="D6" s="68" t="n">
+        <v>3.91146428571429</v>
+      </c>
+      <c r="E6" s="68" t="n">
         <v>6.45196590909091</v>
       </c>
-      <c r="E6" s="55" t="n">
+      <c r="F6" s="55" t="n">
         <v>3.55710714285714</v>
       </c>
     </row>
@@ -1748,9 +1768,12 @@
         <v>1.94514285714286</v>
       </c>
       <c r="D7" s="67" t="n">
+        <v>5.64085714285714</v>
+      </c>
+      <c r="E7" s="67" t="n">
         <v>4.96588888888889</v>
       </c>
-      <c r="E7" s="66" t="n">
+      <c r="F7" s="66" t="n">
         <v>1.50520488721805</v>
       </c>
     </row>
@@ -1765,15 +1788,18 @@
         <v>1.48879069767442</v>
       </c>
       <c r="D8" s="58" t="n">
+        <v>5.65262790697674</v>
+      </c>
+      <c r="E8" s="58" t="n">
         <v>5.38612962962963</v>
       </c>
-      <c r="E8" s="57" t="n">
+      <c r="F8" s="57" t="n">
         <v>2.77561538461538</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
@@ -1802,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1817,19 +1843,19 @@
       <c r="A2" s="71"/>
       <c r="B2" s="71"/>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="69"/>
       <c r="F2" s="70"/>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="69"/>
       <c r="I2" s="69"/>
       <c r="J2" s="70"/>
       <c r="K2" s="72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1840,31 +1866,31 @@
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="H3" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="I3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" s="76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">

--- a/tests/testthat/test_data/Results.xlsx
+++ b/tests/testthat/test_data/Results.xlsx
@@ -1901,31 +1901,31 @@
         <v>12</v>
       </c>
       <c r="C4" s="16" t="n">
-        <v>534</v>
+        <v>814</v>
       </c>
       <c r="D4" s="18" t="n">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="G4" s="77" t="n">
-        <v>0.595</v>
+        <v>0.907</v>
       </c>
       <c r="H4" s="77" t="n">
-        <v>0.211</v>
+        <v>0.062</v>
       </c>
       <c r="I4" s="77" t="n">
-        <v>0.101</v>
+        <v>0.02</v>
       </c>
       <c r="J4" s="77" t="n">
-        <v>0.093</v>
+        <v>0.01</v>
       </c>
       <c r="K4" s="17" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1936,31 +1936,31 @@
         <v>13</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>104</v>
+        <v>566</v>
       </c>
       <c r="D5" t="n">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E5" t="n">
-        <v>287</v>
+        <v>51</v>
       </c>
       <c r="F5" t="n">
-        <v>269</v>
+        <v>49</v>
       </c>
       <c r="G5" s="80" t="n">
-        <v>0.125</v>
+        <v>0.678</v>
       </c>
       <c r="H5" s="80" t="n">
-        <v>0.21</v>
+        <v>0.202</v>
       </c>
       <c r="I5" s="80" t="n">
-        <v>0.344</v>
+        <v>0.061</v>
       </c>
       <c r="J5" s="80" t="n">
-        <v>0.322</v>
+        <v>0.059</v>
       </c>
       <c r="K5" s="10" t="n">
-        <v>186</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1971,31 +1971,31 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>638</v>
+        <v>1380</v>
       </c>
       <c r="D6" t="n">
-        <v>364</v>
+        <v>225</v>
       </c>
       <c r="E6" t="n">
-        <v>378</v>
+        <v>69</v>
       </c>
       <c r="F6" t="n">
-        <v>352</v>
+        <v>58</v>
       </c>
       <c r="G6" s="80" t="n">
-        <v>0.368</v>
+        <v>0.797</v>
       </c>
       <c r="H6" s="80" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="I6" s="80" t="n">
-        <v>0.218</v>
+        <v>0.04</v>
       </c>
       <c r="J6" s="80" t="n">
-        <v>0.203</v>
+        <v>0.033</v>
       </c>
       <c r="K6" s="10" t="n">
-        <v>125</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -2006,31 +2006,31 @@
         <v>12</v>
       </c>
       <c r="C7" s="16" t="n">
-        <v>36</v>
+        <v>414</v>
       </c>
       <c r="D7" s="18" t="n">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="G7" s="78" t="n">
-        <v>0.057</v>
+        <v>0.653</v>
       </c>
       <c r="H7" s="78" t="n">
-        <v>0.345</v>
+        <v>0.172</v>
       </c>
       <c r="I7" s="78" t="n">
-        <v>0.251</v>
+        <v>0.088</v>
       </c>
       <c r="J7" s="78" t="n">
-        <v>0.347</v>
+        <v>0.087</v>
       </c>
       <c r="K7" s="17" t="n">
-        <v>189</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -2041,31 +2041,31 @@
         <v>13</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>109</v>
+        <v>843</v>
       </c>
       <c r="D8" t="n">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="E8" t="n">
-        <v>421</v>
+        <v>72</v>
       </c>
       <c r="F8" t="n">
-        <v>437</v>
+        <v>102</v>
       </c>
       <c r="G8" s="80" t="n">
-        <v>0.085</v>
+        <v>0.659</v>
       </c>
       <c r="H8" s="80" t="n">
-        <v>0.245</v>
+        <v>0.205</v>
       </c>
       <c r="I8" s="80" t="n">
-        <v>0.329</v>
+        <v>0.056</v>
       </c>
       <c r="J8" s="80" t="n">
-        <v>0.341</v>
+        <v>0.08</v>
       </c>
       <c r="K8" s="10" t="n">
-        <v>193</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -2076,31 +2076,31 @@
         <v>14</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>145</v>
+        <v>1257</v>
       </c>
       <c r="D9" t="n">
-        <v>532</v>
+        <v>372</v>
       </c>
       <c r="E9" t="n">
-        <v>580</v>
+        <v>128</v>
       </c>
       <c r="F9" t="n">
-        <v>657</v>
+        <v>157</v>
       </c>
       <c r="G9" s="80" t="n">
-        <v>0.076</v>
+        <v>0.657</v>
       </c>
       <c r="H9" s="80" t="n">
-        <v>0.278</v>
+        <v>0.194</v>
       </c>
       <c r="I9" s="80" t="n">
-        <v>0.303</v>
+        <v>0.067</v>
       </c>
       <c r="J9" s="80" t="n">
-        <v>0.343</v>
+        <v>0.082</v>
       </c>
       <c r="K9" s="10" t="n">
-        <v>191</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -2111,31 +2111,31 @@
         <v>12</v>
       </c>
       <c r="C10" s="16" t="n">
-        <v>199</v>
+        <v>527</v>
       </c>
       <c r="D10" s="18" t="n">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G10" s="79" t="n">
-        <v>0.328</v>
+        <v>0.868</v>
       </c>
       <c r="H10" s="79" t="n">
-        <v>0.316</v>
+        <v>0.094</v>
       </c>
       <c r="I10" s="79" t="n">
-        <v>0.224</v>
+        <v>0.016</v>
       </c>
       <c r="J10" s="79" t="n">
-        <v>0.132</v>
+        <v>0.021</v>
       </c>
       <c r="K10" s="17" t="n">
-        <v>116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -2146,31 +2146,31 @@
         <v>13</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>382</v>
+        <v>927</v>
       </c>
       <c r="D11" t="n">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="E11" t="n">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="F11" t="n">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="G11" s="80" t="n">
-        <v>0.318</v>
+        <v>0.771</v>
       </c>
       <c r="H11" s="80" t="n">
-        <v>0.229</v>
+        <v>0.136</v>
       </c>
       <c r="I11" s="80" t="n">
-        <v>0.225</v>
+        <v>0.055</v>
       </c>
       <c r="J11" s="80" t="n">
-        <v>0.229</v>
+        <v>0.037</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>137</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -2181,31 +2181,31 @@
         <v>14</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>581</v>
+        <v>1454</v>
       </c>
       <c r="D12" s="14" t="n">
-        <v>467</v>
+        <v>221</v>
       </c>
       <c r="E12" s="14" t="n">
-        <v>406</v>
+        <v>76</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>355</v>
+        <v>58</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>0.321</v>
+        <v>0.804</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>0.258</v>
+        <v>0.122</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>0.224</v>
+        <v>0.042</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>0.196</v>
+        <v>0.032</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>129</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/test_data/Results.xlsx
+++ b/tests/testthat/test_data/Results.xlsx
@@ -1,190 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\phenoptrReports\tests\testthat\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF337418-A284-451B-8B37-B54488816589}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Slide Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Cell Counts" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Cell Percents" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Cell Densities" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Mean Expression" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="H-Score" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Slide Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Cell Counts" sheetId="2" r:id="rId2"/>
+    <sheet name="Cell Percents" sheetId="3" r:id="rId3"/>
+    <sheet name="Cell Densities" sheetId="4" r:id="rId4"/>
+    <sheet name="Mean Expression" sheetId="7" r:id="rId5"/>
+    <sheet name="H-Score" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Cell Counts'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Cell Densities'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Cell Percents'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'H-Score'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Mean Expression'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Slide Summary'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Cell Counts'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Cell Percents'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Cell Densities'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Mean Expression'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'H-Score'!$1:$3</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t xml:space="preserve">Slide ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12_20-6plex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4_1-6plex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8_11-6plex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Counts per Phenotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tissue Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD68+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoxP3+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CK+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tumor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of Total Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Densities (cells/mm2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tissue Area (mm2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Membrane PDL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Membrane PD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD68+ Membrane PDL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CK+ Membrane PDL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H-Score, Membrane PDL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cells per Bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of Total Cells per Bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H-Score</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="32">
+  <si>
+    <t>Slide ID</t>
+  </si>
+  <si>
+    <t>Number of fields</t>
+  </si>
+  <si>
+    <t>12_20-6plex</t>
+  </si>
+  <si>
+    <t>4_1-6plex</t>
+  </si>
+  <si>
+    <t>8_11-6plex</t>
+  </si>
+  <si>
+    <t>Cell Counts per Phenotype</t>
+  </si>
+  <si>
+    <t>Tissue Category</t>
+  </si>
+  <si>
+    <t>CD8+</t>
+  </si>
+  <si>
+    <t>CD68+</t>
+  </si>
+  <si>
+    <t>FoxP3+</t>
+  </si>
+  <si>
+    <t>CK+</t>
+  </si>
+  <si>
+    <t>Total Cells</t>
+  </si>
+  <si>
+    <t>Tumor</t>
+  </si>
+  <si>
+    <t>Stroma</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percentage of Total Cells</t>
+  </si>
+  <si>
+    <t>Cell Densities (cells/mm2)</t>
+  </si>
+  <si>
+    <t>Tissue Area (mm2)</t>
+  </si>
+  <si>
+    <t>Mean Expression</t>
+  </si>
+  <si>
+    <t>CD8+ Membrane PDL1</t>
+  </si>
+  <si>
+    <t>CD8+ Membrane PD1</t>
+  </si>
+  <si>
+    <t>CD68+ Membrane PDL1</t>
+  </si>
+  <si>
+    <t>CK+ Membrane PDL1</t>
+  </si>
+  <si>
+    <t>H-Score, Membrane PDL1</t>
+  </si>
+  <si>
+    <t>Cells per Bin</t>
+  </si>
+  <si>
+    <t>Percent of Total Cells per Bin</t>
+  </si>
+  <si>
+    <t>0+</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>H-Score</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="58">
-    <numFmt numFmtId="50000" formatCode="0%"/>
-    <numFmt numFmtId="50001" formatCode="0%"/>
-    <numFmt numFmtId="50002" formatCode="0%"/>
-    <numFmt numFmtId="50003" formatCode="0%"/>
-    <numFmt numFmtId="50004" formatCode="0%"/>
-    <numFmt numFmtId="50005" formatCode="0%"/>
-    <numFmt numFmtId="50006" formatCode="0%"/>
-    <numFmt numFmtId="50007" formatCode="0%"/>
-    <numFmt numFmtId="50008" formatCode="0%"/>
-    <numFmt numFmtId="50009" formatCode="0%"/>
-    <numFmt numFmtId="50010" formatCode="0%"/>
-    <numFmt numFmtId="50011" formatCode="0%"/>
-    <numFmt numFmtId="50012" formatCode="0%"/>
-    <numFmt numFmtId="50013" formatCode="0%"/>
-    <numFmt numFmtId="50014" formatCode="0%"/>
-    <numFmt numFmtId="50015" formatCode="0.00"/>
-    <numFmt numFmtId="50016" formatCode="0.00"/>
-    <numFmt numFmtId="50017" formatCode="0.00"/>
-    <numFmt numFmtId="50018" formatCode="0.00"/>
-    <numFmt numFmtId="50019" formatCode="0.00"/>
-    <numFmt numFmtId="50020" formatCode="0"/>
-    <numFmt numFmtId="50021" formatCode="0"/>
-    <numFmt numFmtId="50022" formatCode="0"/>
-    <numFmt numFmtId="50023" formatCode="0"/>
-    <numFmt numFmtId="50024" formatCode="0"/>
-    <numFmt numFmtId="50025" formatCode="0"/>
-    <numFmt numFmtId="50026" formatCode="0"/>
-    <numFmt numFmtId="50027" formatCode="0"/>
-    <numFmt numFmtId="50028" formatCode="0"/>
-    <numFmt numFmtId="50029" formatCode="0"/>
-    <numFmt numFmtId="50030" formatCode="0"/>
-    <numFmt numFmtId="50031" formatCode="0"/>
-    <numFmt numFmtId="50032" formatCode="0"/>
-    <numFmt numFmtId="50033" formatCode="0"/>
-    <numFmt numFmtId="50034" formatCode="0"/>
-    <numFmt numFmtId="50035" formatCode="0.00"/>
-    <numFmt numFmtId="50036" formatCode="0.00"/>
-    <numFmt numFmtId="50037" formatCode="0.00"/>
-    <numFmt numFmtId="50038" formatCode="0.00"/>
-    <numFmt numFmtId="50039" formatCode="0.00"/>
-    <numFmt numFmtId="50040" formatCode="0.00"/>
-    <numFmt numFmtId="50041" formatCode="0.00"/>
-    <numFmt numFmtId="50042" formatCode="0.00"/>
-    <numFmt numFmtId="50043" formatCode="0.00"/>
-    <numFmt numFmtId="50044" formatCode="0.00"/>
-    <numFmt numFmtId="50045" formatCode="0.00"/>
-    <numFmt numFmtId="50046" formatCode="0.00"/>
-    <numFmt numFmtId="50047" formatCode="0.00"/>
-    <numFmt numFmtId="50048" formatCode="0.00"/>
-    <numFmt numFmtId="50049" formatCode="0.00"/>
-    <numFmt numFmtId="50050" formatCode="0.0%"/>
-    <numFmt numFmtId="50051" formatCode="0.0%"/>
-    <numFmt numFmtId="50052" formatCode="0.0%"/>
-    <numFmt numFmtId="50053" formatCode="0.0%"/>
-    <numFmt numFmtId="50054" formatCode="0.0%"/>
-    <numFmt numFmtId="50055" formatCode="0.0%"/>
-    <numFmt numFmtId="50056" formatCode="0.0%"/>
-    <numFmt numFmtId="50057" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -193,10 +147,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
       <sz val="11"/>
@@ -221,25 +175,31 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -249,6 +209,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -260,6 +221,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -268,9 +231,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -285,58 +250,87 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -345,28 +339,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -380,56 +366,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="50000" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50001" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50002" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50003" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50004" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50005" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50006" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50007" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50008" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50009" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50010" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50011" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50012" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50013" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50014" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="50015" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50016" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50017" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50018" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50019" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50020" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50021" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50022" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50023" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50024" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50025" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50026" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50027" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50028" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50029" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50030" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50031" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50032" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50033" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50034" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="50035" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50036" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50037" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50038" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50039" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50040" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50041" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50042" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50043" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50044" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50045" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50046" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50047" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50048" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50049" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -438,27 +445,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="50050" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="50051" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="50052" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="50053" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="50054" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50055" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50056" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50057" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -740,18 +740,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,290 +758,289 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="11">
         <v>8</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="13">
         <v>13</v>
       </c>
-      <c r="E3" s="18" t="n">
+      <c r="E3" s="13">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="n">
+      <c r="F3" s="13">
         <v>829</v>
       </c>
-      <c r="G3" s="17" t="n">
+      <c r="G3" s="12">
         <v>897</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="4">
         <v>22</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>86</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>54</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="5">
         <v>835</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="4">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>99</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>58</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>849</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="5">
         <v>1732</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="11">
         <v>24</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="13">
         <v>27</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="E6" s="13">
         <v>12</v>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="13">
         <v>514</v>
       </c>
-      <c r="G6" s="17" t="n">
+      <c r="G6" s="12">
         <v>634</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="4">
         <v>84</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>88</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>80</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>28</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="5">
         <v>1280</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="4">
         <v>108</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>115</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>92</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>542</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="5">
         <v>1914</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="11">
         <v>7</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="13">
         <v>18</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="13">
         <v>5</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="13">
         <v>532</v>
       </c>
-      <c r="G9" s="17" t="n">
+      <c r="G9" s="12">
         <v>607</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="4">
         <v>43</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>108</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>98</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="5">
         <v>1202</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="7">
         <v>50</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="9">
         <v>126</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="9">
         <v>103</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="9">
         <v>545</v>
       </c>
-      <c r="G11" s="13" t="n">
+      <c r="G11" s="8">
         <v>1809</v>
       </c>
     </row>
@@ -1053,264 +1051,263 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="24" t="n">
-        <v>0.00891861761426979</v>
-      </c>
-      <c r="D3" s="26" t="n">
-        <v>0.0144927536231884</v>
-      </c>
-      <c r="E3" s="26" t="n">
-        <v>0.00445930880713489</v>
-      </c>
-      <c r="F3" s="26" t="n">
-        <v>0.924191750278707</v>
-      </c>
-      <c r="G3" s="25" t="n">
+      <c r="C3" s="19">
+        <v>8.9186176142697898E-3</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1.4492753623188401E-2</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4.4593088071348897E-3</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.92419175027870704</v>
+      </c>
+      <c r="G3" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19" t="n">
-        <v>0.0263473053892216</v>
-      </c>
-      <c r="D4" s="33" t="n">
+      <c r="C4" s="14">
+        <v>2.6347305389221601E-2</v>
+      </c>
+      <c r="D4" s="28">
         <v>0.102994011976048</v>
       </c>
-      <c r="E4" s="33" t="n">
-        <v>0.0646706586826347</v>
-      </c>
-      <c r="F4" s="33" t="n">
-        <v>0.0239520958083832</v>
-      </c>
-      <c r="G4" s="20" t="n">
+      <c r="E4" s="28">
+        <v>6.4670658682634705E-2</v>
+      </c>
+      <c r="F4" s="28">
+        <v>2.39520958083832E-2</v>
+      </c>
+      <c r="G4" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19" t="n">
-        <v>0.0173210161662818</v>
-      </c>
-      <c r="D5" s="33" t="n">
-        <v>0.0571593533487298</v>
-      </c>
-      <c r="E5" s="33" t="n">
-        <v>0.0334872979214781</v>
-      </c>
-      <c r="F5" s="33" t="n">
+      <c r="C5" s="14">
+        <v>1.7321016166281799E-2</v>
+      </c>
+      <c r="D5" s="28">
+        <v>5.7159353348729798E-2</v>
+      </c>
+      <c r="E5" s="28">
+        <v>3.3487297921478101E-2</v>
+      </c>
+      <c r="F5" s="28">
         <v>0.490184757505774</v>
       </c>
-      <c r="G5" s="20" t="n">
+      <c r="G5" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="27" t="n">
-        <v>0.0378548895899054</v>
-      </c>
-      <c r="D6" s="29" t="n">
-        <v>0.0425867507886435</v>
-      </c>
-      <c r="E6" s="29" t="n">
-        <v>0.0189274447949527</v>
-      </c>
-      <c r="F6" s="29" t="n">
-        <v>0.810725552050473</v>
-      </c>
-      <c r="G6" s="28" t="n">
+      <c r="C6" s="22">
+        <v>3.7854889589905398E-2</v>
+      </c>
+      <c r="D6" s="24">
+        <v>4.2586750788643497E-2</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1.8927444794952699E-2</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.81072555205047303</v>
+      </c>
+      <c r="G6" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19" t="n">
-        <v>0.065625</v>
-      </c>
-      <c r="D7" s="33" t="n">
-        <v>0.06875</v>
-      </c>
-      <c r="E7" s="33" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="F7" s="33" t="n">
-        <v>0.021875</v>
-      </c>
-      <c r="G7" s="20" t="n">
+      <c r="C7" s="14">
+        <v>6.5625000000000003E-2</v>
+      </c>
+      <c r="D7" s="28">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="E7" s="28">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F7" s="28">
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="G7" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="19" t="n">
-        <v>0.0564263322884013</v>
-      </c>
-      <c r="D8" s="33" t="n">
-        <v>0.0600835945663532</v>
-      </c>
-      <c r="E8" s="33" t="n">
-        <v>0.0480668756530825</v>
-      </c>
-      <c r="F8" s="33" t="n">
-        <v>0.283176593521421</v>
-      </c>
-      <c r="G8" s="20" t="n">
+      <c r="C8" s="14">
+        <v>5.6426332288401299E-2</v>
+      </c>
+      <c r="D8" s="28">
+        <v>6.0083594566353198E-2</v>
+      </c>
+      <c r="E8" s="28">
+        <v>4.80668756530825E-2</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0.28317659352142099</v>
+      </c>
+      <c r="G8" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="30" t="n">
-        <v>0.0115321252059308</v>
-      </c>
-      <c r="D9" s="32" t="n">
-        <v>0.0296540362438221</v>
-      </c>
-      <c r="E9" s="32" t="n">
-        <v>0.00823723228995058</v>
-      </c>
-      <c r="F9" s="32" t="n">
-        <v>0.876441515650741</v>
-      </c>
-      <c r="G9" s="31" t="n">
+      <c r="C9" s="25">
+        <v>1.1532125205930799E-2</v>
+      </c>
+      <c r="D9" s="27">
+        <v>2.96540362438221E-2</v>
+      </c>
+      <c r="E9" s="27">
+        <v>8.2372322899505798E-3</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0.87644151565074102</v>
+      </c>
+      <c r="G9" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="19" t="n">
-        <v>0.0357737104825291</v>
-      </c>
-      <c r="D10" s="33" t="n">
-        <v>0.0898502495840266</v>
-      </c>
-      <c r="E10" s="33" t="n">
-        <v>0.0815307820299501</v>
-      </c>
-      <c r="F10" s="33" t="n">
-        <v>0.0108153078202995</v>
-      </c>
-      <c r="G10" s="20" t="n">
+      <c r="C10" s="14">
+        <v>3.57737104825291E-2</v>
+      </c>
+      <c r="D10" s="28">
+        <v>8.9850249584026598E-2</v>
+      </c>
+      <c r="E10" s="28">
+        <v>8.1530782029950094E-2</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1.08153078202995E-2</v>
+      </c>
+      <c r="G10" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="21" t="n">
-        <v>0.0276395798783858</v>
-      </c>
-      <c r="D11" s="23" t="n">
-        <v>0.0696517412935323</v>
-      </c>
-      <c r="E11" s="23" t="n">
-        <v>0.0569375345494748</v>
-      </c>
-      <c r="F11" s="23" t="n">
-        <v>0.301271420674406</v>
-      </c>
-      <c r="G11" s="22" t="n">
+      <c r="C11" s="16">
+        <v>2.7639579878385799E-2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>6.9651741293532299E-2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>5.6937534549474797E-2</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.30127142067440599</v>
+      </c>
+      <c r="G11" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1321,298 +1318,299 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="35" t="n">
-        <v>1.04517325</v>
-      </c>
-      <c r="D3" s="44" t="n">
-        <v>7.65423340101749</v>
-      </c>
-      <c r="E3" s="46" t="n">
-        <v>12.4381292766534</v>
-      </c>
-      <c r="F3" s="46" t="n">
-        <v>3.82711670050874</v>
-      </c>
-      <c r="G3" s="46" t="n">
-        <v>793.169936180437</v>
-      </c>
-      <c r="H3" s="45" t="n">
+      <c r="C3" s="30">
+        <v>1.0451732499999999</v>
+      </c>
+      <c r="D3" s="39">
+        <v>7.6542334010174899</v>
+      </c>
+      <c r="E3" s="41">
+        <v>12.438129276653401</v>
+      </c>
+      <c r="F3" s="41">
+        <v>3.8271167005087401</v>
+      </c>
+      <c r="G3" s="41">
+        <v>793.16993618043705</v>
+      </c>
+      <c r="H3" s="40">
         <v>858.230920089086</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="38" t="n">
-        <v>0.90039125</v>
-      </c>
-      <c r="D4" s="39" t="n">
+      <c r="C4" s="33">
+        <v>0.90039124999999998</v>
+      </c>
+      <c r="D4" s="34">
         <v>24.4338225188217</v>
       </c>
-      <c r="E4" s="53" t="n">
-        <v>95.5140334826666</v>
-      </c>
-      <c r="F4" s="53" t="n">
-        <v>59.9739280007441</v>
-      </c>
-      <c r="G4" s="53" t="n">
-        <v>22.2125659262015</v>
-      </c>
-      <c r="H4" s="40" t="n">
-        <v>927.374627418914</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" s="48">
+        <v>95.514033482666605</v>
+      </c>
+      <c r="F4" s="48">
+        <v>59.973928000744102</v>
+      </c>
+      <c r="G4" s="48">
+        <v>22.212565926201499</v>
+      </c>
+      <c r="H4" s="35">
+        <v>927.37462741891397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="38" t="n">
-        <v>1.9455645</v>
-      </c>
-      <c r="D5" s="39" t="n">
+      <c r="C5" s="33">
+        <v>1.9455644999999999</v>
+      </c>
+      <c r="D5" s="34">
         <v>15.4196892470026</v>
       </c>
-      <c r="E5" s="53" t="n">
-        <v>50.8849745151086</v>
-      </c>
-      <c r="F5" s="53" t="n">
-        <v>29.8113992108717</v>
-      </c>
-      <c r="G5" s="53" t="n">
-        <v>436.377205690174</v>
-      </c>
-      <c r="H5" s="40" t="n">
-        <v>890.230059193617</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="E5" s="48">
+        <v>50.884974515108603</v>
+      </c>
+      <c r="F5" s="48">
+        <v>29.811399210871699</v>
+      </c>
+      <c r="G5" s="48">
+        <v>436.37720569017398</v>
+      </c>
+      <c r="H5" s="35">
+        <v>890.23005919361697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="36" t="n">
-        <v>0.77046325</v>
-      </c>
-      <c r="D6" s="47" t="n">
-        <v>31.1500905461747</v>
-      </c>
-      <c r="E6" s="49" t="n">
-        <v>35.0438518644465</v>
-      </c>
-      <c r="F6" s="49" t="n">
+      <c r="C6" s="31">
+        <v>0.77046325000000004</v>
+      </c>
+      <c r="D6" s="42">
+        <v>31.150090546174699</v>
+      </c>
+      <c r="E6" s="44">
+        <v>35.043851864446502</v>
+      </c>
+      <c r="F6" s="44">
         <v>15.5750452730873</v>
       </c>
-      <c r="G6" s="49" t="n">
-        <v>667.131105863907</v>
-      </c>
-      <c r="H6" s="48" t="n">
-        <v>822.88155859478</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="G6" s="44">
+        <v>667.13110586390701</v>
+      </c>
+      <c r="H6" s="43">
+        <v>822.88155859478002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="38" t="n">
+      <c r="C7" s="33">
         <v>1.18385425</v>
       </c>
-      <c r="D7" s="39" t="n">
-        <v>70.9546804431373</v>
-      </c>
-      <c r="E7" s="53" t="n">
-        <v>74.3334747499534</v>
-      </c>
-      <c r="F7" s="53" t="n">
-        <v>67.5758861363213</v>
-      </c>
-      <c r="G7" s="53" t="n">
-        <v>23.6515601477124</v>
-      </c>
-      <c r="H7" s="40" t="n">
-        <v>1081.21417818114</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="D7" s="34">
+        <v>70.954680443137306</v>
+      </c>
+      <c r="E7" s="48">
+        <v>74.333474749953396</v>
+      </c>
+      <c r="F7" s="48">
+        <v>67.575886136321301</v>
+      </c>
+      <c r="G7" s="48">
+        <v>23.651560147712399</v>
+      </c>
+      <c r="H7" s="35">
+        <v>1081.2141781811399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="38" t="n">
-        <v>1.9543175</v>
-      </c>
-      <c r="D8" s="39" t="n">
-        <v>55.2622590750991</v>
-      </c>
-      <c r="E8" s="53" t="n">
-        <v>58.8440721633</v>
-      </c>
-      <c r="F8" s="53" t="n">
-        <v>47.07525773064</v>
-      </c>
-      <c r="G8" s="53" t="n">
-        <v>277.334670543553</v>
-      </c>
-      <c r="H8" s="40" t="n">
-        <v>979.370035830923</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="C8" s="33">
+        <v>1.9543174999999999</v>
+      </c>
+      <c r="D8" s="34">
+        <v>55.262259075099102</v>
+      </c>
+      <c r="E8" s="48">
+        <v>58.844072163299998</v>
+      </c>
+      <c r="F8" s="48">
+        <v>47.075257730639997</v>
+      </c>
+      <c r="G8" s="48">
+        <v>277.33467054355299</v>
+      </c>
+      <c r="H8" s="35">
+        <v>979.37003583092303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="37" t="n">
+      <c r="C9" s="32">
         <v>0.789072</v>
       </c>
-      <c r="D9" s="50" t="n">
-        <v>8.87118032321512</v>
-      </c>
-      <c r="E9" s="52" t="n">
-        <v>22.8116065454103</v>
-      </c>
-      <c r="F9" s="52" t="n">
-        <v>6.33655737372508</v>
-      </c>
-      <c r="G9" s="52" t="n">
-        <v>674.209704564349</v>
-      </c>
-      <c r="H9" s="51" t="n">
+      <c r="D9" s="45">
+        <v>8.8711803232151194</v>
+      </c>
+      <c r="E9" s="47">
+        <v>22.811606545410299</v>
+      </c>
+      <c r="F9" s="47">
+        <v>6.3365573737250802</v>
+      </c>
+      <c r="G9" s="47">
+        <v>674.20970456434895</v>
+      </c>
+      <c r="H9" s="46">
         <v>769.258065170225</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="38" t="n">
-        <v>1.167587</v>
-      </c>
-      <c r="D10" s="39" t="n">
+      <c r="C10" s="33">
+        <v>1.1675869999999999</v>
+      </c>
+      <c r="D10" s="34">
         <v>36.8280907546932</v>
       </c>
-      <c r="E10" s="53" t="n">
-        <v>92.4984605001597</v>
-      </c>
-      <c r="F10" s="53" t="n">
-        <v>83.9337882316264</v>
-      </c>
-      <c r="G10" s="53" t="n">
-        <v>11.1340739490933</v>
-      </c>
-      <c r="H10" s="40" t="n">
+      <c r="E10" s="48">
+        <v>92.498460500159695</v>
+      </c>
+      <c r="F10" s="48">
+        <v>83.933788231626394</v>
+      </c>
+      <c r="G10" s="48">
+        <v>11.134073949093301</v>
+      </c>
+      <c r="H10" s="35">
         <v>1029.4736066777</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="34" t="n">
-        <v>1.956659</v>
-      </c>
-      <c r="D11" s="41" t="n">
+      <c r="C11" s="29">
+        <v>1.9566589999999999</v>
+      </c>
+      <c r="D11" s="36">
         <v>25.5537628171286</v>
       </c>
-      <c r="E11" s="43" t="n">
-        <v>64.395482299164</v>
-      </c>
-      <c r="F11" s="43" t="n">
-        <v>52.6407514032849</v>
-      </c>
-      <c r="G11" s="43" t="n">
-        <v>278.536014706702</v>
-      </c>
-      <c r="H11" s="42" t="n">
-        <v>924.535138723712</v>
+      <c r="E11" s="38">
+        <v>64.395482299164001</v>
+      </c>
+      <c r="F11" s="38">
+        <v>52.640751403284902</v>
+      </c>
+      <c r="G11" s="38">
+        <v>278.53601470670202</v>
+      </c>
+      <c r="H11" s="37">
+        <v>924.53513872371195</v>
       </c>
     </row>
   </sheetData>
@@ -1623,178 +1621,236 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BCDDEB-6D70-41FA-88CF-8DDEFC13D918}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="14.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="14.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="14.71" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="59" t="n">
-        <v>0.856125</v>
-      </c>
-      <c r="D3" s="61" t="n">
-        <v>7.434</v>
-      </c>
-      <c r="E3" s="61" t="n">
-        <v>5.96084615384615</v>
-      </c>
-      <c r="F3" s="60" t="n">
-        <v>0.947405307599517</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" s="54">
+        <v>0.85612500000000002</v>
+      </c>
+      <c r="D3" s="56">
+        <v>7.4340000000000002</v>
+      </c>
+      <c r="E3" s="56">
+        <v>5.9608461538461501</v>
+      </c>
+      <c r="F3" s="55">
+        <v>0.94740530759951702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="54" t="n">
-        <v>2.03454545454545</v>
-      </c>
-      <c r="D4" s="68" t="n">
-        <v>6.93463636363636</v>
-      </c>
-      <c r="E4" s="68" t="n">
-        <v>5.03644186046512</v>
-      </c>
-      <c r="F4" s="55" t="n">
-        <v>2.0013</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="C4" s="49">
+        <v>2.0345454545454502</v>
+      </c>
+      <c r="D4" s="57">
+        <v>6.9346363636363604</v>
+      </c>
+      <c r="E4" s="57">
+        <v>5.0364418604651204</v>
+      </c>
+      <c r="F4" s="50">
+        <v>2.0013000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="49">
+        <v>1.7202999999999999</v>
+      </c>
+      <c r="D5" s="57">
+        <v>7.0678000000000001</v>
+      </c>
+      <c r="E5" s="57">
+        <v>5.1578282828282802</v>
+      </c>
+      <c r="F5" s="50">
+        <v>0.97223203769140198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="62" t="n">
-        <v>3.3575</v>
-      </c>
-      <c r="D5" s="64" t="n">
-        <v>2.85891666666667</v>
-      </c>
-      <c r="E5" s="64" t="n">
-        <v>8.04607407407407</v>
-      </c>
-      <c r="F5" s="63" t="n">
-        <v>3.70934630350195</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="54">
+        <v>3.3574999999999999</v>
+      </c>
+      <c r="D6" s="56">
+        <v>2.8589166666666701</v>
+      </c>
+      <c r="E6" s="56">
+        <v>8.0460740740740704</v>
+      </c>
+      <c r="F6" s="55">
+        <v>3.7093463035019498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="54" t="n">
+      <c r="C7" s="49">
         <v>2.33060714285714</v>
       </c>
-      <c r="D6" s="68" t="n">
-        <v>3.91146428571429</v>
-      </c>
-      <c r="E6" s="68" t="n">
-        <v>6.45196590909091</v>
-      </c>
-      <c r="F6" s="55" t="n">
-        <v>3.55710714285714</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="D7" s="57">
+        <v>3.9114642857142901</v>
+      </c>
+      <c r="E7" s="57">
+        <v>6.4519659090909096</v>
+      </c>
+      <c r="F7" s="50">
+        <v>3.5571071428571401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="49">
+        <v>2.5588055555555602</v>
+      </c>
+      <c r="D8" s="57">
+        <v>3.6775648148148199</v>
+      </c>
+      <c r="E8" s="57">
+        <v>6.8262347826087</v>
+      </c>
+      <c r="F8" s="50">
+        <v>3.7014815498155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="65" t="n">
-        <v>1.94514285714286</v>
-      </c>
-      <c r="D7" s="67" t="n">
-        <v>5.64085714285714</v>
-      </c>
-      <c r="E7" s="67" t="n">
-        <v>4.96588888888889</v>
-      </c>
-      <c r="F7" s="66" t="n">
-        <v>1.50520488721805</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="C9" s="54">
+        <v>1.9451428571428599</v>
+      </c>
+      <c r="D9" s="56">
+        <v>5.6408571428571399</v>
+      </c>
+      <c r="E9" s="56">
+        <v>4.9658888888888901</v>
+      </c>
+      <c r="F9" s="55">
+        <v>1.5052048872180499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="56" t="n">
-        <v>1.48879069767442</v>
-      </c>
-      <c r="D8" s="58" t="n">
-        <v>5.65262790697674</v>
-      </c>
-      <c r="E8" s="58" t="n">
-        <v>5.38612962962963</v>
-      </c>
-      <c r="F8" s="57" t="n">
-        <v>2.77561538461538</v>
+      <c r="C10" s="49">
+        <v>1.4887906976744201</v>
+      </c>
+      <c r="D10" s="57">
+        <v>5.6526279069767398</v>
+      </c>
+      <c r="E10" s="57">
+        <v>5.3861296296296297</v>
+      </c>
+      <c r="F10" s="50">
+        <v>2.7756153846153802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="51">
+        <v>1.5526800000000001</v>
+      </c>
+      <c r="D11" s="53">
+        <v>5.6509799999999997</v>
+      </c>
+      <c r="E11" s="53">
+        <v>5.32609523809524</v>
+      </c>
+      <c r="F11" s="52">
+        <v>1.5355082568807299</v>
       </c>
     </row>
   </sheetData>
@@ -1804,407 +1860,408 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="4" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="72" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="70" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="11">
         <v>814</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="13">
         <v>56</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="13">
         <v>18</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="13">
         <v>9</v>
       </c>
-      <c r="G4" s="77" t="n">
-        <v>0.907</v>
-      </c>
-      <c r="H4" s="77" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="I4" s="77" t="n">
+      <c r="G4" s="62">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="H4" s="62">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I4" s="62">
         <v>0.02</v>
       </c>
-      <c r="J4" s="77" t="n">
+      <c r="J4" s="62">
         <v>0.01</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="12">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="4">
         <v>566</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>169</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>51</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>49</v>
       </c>
-      <c r="G5" s="80" t="n">
-        <v>0.678</v>
-      </c>
-      <c r="H5" s="80" t="n">
-        <v>0.202</v>
-      </c>
-      <c r="I5" s="80" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="J5" s="80" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="K5" s="10" t="n">
+      <c r="G5" s="65">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="H5" s="65">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I5" s="65">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J5" s="65">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K5" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="4">
         <v>1380</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>225</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>69</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>58</v>
       </c>
-      <c r="G6" s="80" t="n">
-        <v>0.797</v>
-      </c>
-      <c r="H6" s="80" t="n">
+      <c r="G6" s="65">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="H6" s="65">
         <v>0.13</v>
       </c>
-      <c r="I6" s="80" t="n">
+      <c r="I6" s="65">
         <v>0.04</v>
       </c>
-      <c r="J6" s="80" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="K6" s="10" t="n">
+      <c r="J6" s="65">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K6" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="11">
         <v>414</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="13">
         <v>109</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="13">
         <v>56</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="13">
         <v>55</v>
       </c>
-      <c r="G7" s="78" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="H7" s="78" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="I7" s="78" t="n">
-        <v>0.088</v>
-      </c>
-      <c r="J7" s="78" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="K7" s="17" t="n">
+      <c r="G7" s="63">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="H7" s="63">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I7" s="63">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J7" s="63">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K7" s="12">
         <v>61</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="4">
         <v>843</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>263</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>72</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>102</v>
       </c>
-      <c r="G8" s="80" t="n">
-        <v>0.659</v>
-      </c>
-      <c r="H8" s="80" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="I8" s="80" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="J8" s="80" t="n">
+      <c r="G8" s="65">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="H8" s="65">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I8" s="65">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J8" s="65">
         <v>0.08</v>
       </c>
-      <c r="K8" s="10" t="n">
+      <c r="K8" s="5">
         <v>56</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="4">
         <v>1257</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>372</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>128</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>157</v>
       </c>
-      <c r="G9" s="80" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="H9" s="80" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="I9" s="80" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="J9" s="80" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="K9" s="10" t="n">
+      <c r="G9" s="65">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="H9" s="65">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="I9" s="65">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J9" s="65">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K9" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="11">
         <v>527</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="13">
         <v>57</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="13">
         <v>10</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="13">
         <v>13</v>
       </c>
-      <c r="G10" s="79" t="n">
-        <v>0.868</v>
-      </c>
-      <c r="H10" s="79" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="I10" s="79" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="J10" s="79" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="K10" s="17" t="n">
+      <c r="G10" s="64">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="H10" s="64">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I10" s="64">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J10" s="64">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K10" s="12">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="4">
         <v>927</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>164</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>66</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>45</v>
       </c>
-      <c r="G11" s="80" t="n">
-        <v>0.771</v>
-      </c>
-      <c r="H11" s="80" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="I11" s="80" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="J11" s="80" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="K11" s="10" t="n">
+      <c r="G11" s="65">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="H11" s="65">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I11" s="65">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J11" s="65">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K11" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="7">
         <v>1454</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="9">
         <v>221</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="9">
         <v>76</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F12" s="9">
         <v>58</v>
       </c>
-      <c r="G12" s="14" t="n">
-        <v>0.804</v>
-      </c>
-      <c r="H12" s="14" t="n">
+      <c r="G12" s="9">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="H12" s="9">
         <v>0.122</v>
       </c>
-      <c r="I12" s="14" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="J12" s="14" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="K12" s="13" t="n">
+      <c r="I12" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J12" s="9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K12" s="8">
         <v>30</v>
       </c>
     </row>
@@ -2218,6 +2275,6 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/testthat/test_data/Results.xlsx
+++ b/tests/testthat/test_data/Results.xlsx
@@ -1,144 +1,220 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\phenoptrReports\tests\testthat\test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF337418-A284-451B-8B37-B54488816589}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Slide Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Cell Counts" sheetId="2" r:id="rId2"/>
-    <sheet name="Cell Percents" sheetId="3" r:id="rId3"/>
-    <sheet name="Cell Densities" sheetId="4" r:id="rId4"/>
-    <sheet name="Mean Expression" sheetId="7" r:id="rId5"/>
-    <sheet name="H-Score" sheetId="6" r:id="rId6"/>
+    <sheet name="Slide Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cell Counts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Cell Percents" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cell Densities" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mean Expression" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="H-Score" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Nearest Neighbors" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Slide Summary'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Cell Counts'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Cell Percents'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Cell Densities'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Cell Percents'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Mean Expression'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'H-Score'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Mean Expression'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Slide Summary'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'Nearest Neighbors'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
-    <t>Slide ID</t>
+    <t xml:space="preserve">Slide ID</t>
   </si>
   <si>
-    <t>Number of fields</t>
+    <t xml:space="preserve">Number of fields</t>
   </si>
   <si>
-    <t>12_20-6plex</t>
+    <t xml:space="preserve">12_20-6plex</t>
   </si>
   <si>
-    <t>4_1-6plex</t>
+    <t xml:space="preserve">4_1-6plex</t>
   </si>
   <si>
-    <t>8_11-6plex</t>
+    <t xml:space="preserve">8_11-6plex</t>
   </si>
   <si>
-    <t>Cell Counts per Phenotype</t>
+    <t xml:space="preserve">Cell Counts per Phenotype</t>
   </si>
   <si>
-    <t>Tissue Category</t>
+    <t xml:space="preserve">Tissue Category</t>
   </si>
   <si>
-    <t>CD8+</t>
+    <t xml:space="preserve">CD8+</t>
   </si>
   <si>
-    <t>CD68+</t>
+    <t xml:space="preserve">CD68+</t>
   </si>
   <si>
-    <t>FoxP3+</t>
+    <t xml:space="preserve">FoxP3+</t>
   </si>
   <si>
-    <t>CK+</t>
+    <t xml:space="preserve">CK+</t>
   </si>
   <si>
-    <t>Total Cells</t>
+    <t xml:space="preserve">Total Cells</t>
   </si>
   <si>
-    <t>Tumor</t>
+    <t xml:space="preserve">Tumor</t>
   </si>
   <si>
-    <t>Stroma</t>
+    <t xml:space="preserve">Stroma</t>
   </si>
   <si>
-    <t>Total</t>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t>Percentage of Total Cells</t>
+    <t xml:space="preserve">Percentage of Total Cells</t>
   </si>
   <si>
-    <t>Cell Densities (cells/mm2)</t>
+    <t xml:space="preserve">Cell Densities (cells/mm2)</t>
   </si>
   <si>
-    <t>Tissue Area (mm2)</t>
+    <t xml:space="preserve">Tissue Area (mm2)</t>
   </si>
   <si>
-    <t>Mean Expression</t>
+    <t xml:space="preserve">Mean Expression</t>
   </si>
   <si>
-    <t>CD8+ Membrane PDL1</t>
+    <t xml:space="preserve">CD8+ Membrane PDL1</t>
   </si>
   <si>
-    <t>CD8+ Membrane PD1</t>
+    <t xml:space="preserve">CD8+ Membrane PD1</t>
   </si>
   <si>
-    <t>CD68+ Membrane PDL1</t>
+    <t xml:space="preserve">CD68+ Membrane PDL1</t>
   </si>
   <si>
-    <t>CK+ Membrane PDL1</t>
+    <t xml:space="preserve">CK+ Membrane PDL1</t>
   </si>
   <si>
-    <t>H-Score, Membrane PDL1</t>
+    <t xml:space="preserve">All</t>
   </si>
   <si>
-    <t>Cells per Bin</t>
+    <t xml:space="preserve">H-Score, Membrane PDL1</t>
   </si>
   <si>
-    <t>Percent of Total Cells per Bin</t>
+    <t xml:space="preserve">Cells per Bin</t>
   </si>
   <si>
-    <t>0+</t>
+    <t xml:space="preserve">Percent of Total Cells per Bin</t>
   </si>
   <si>
-    <t>1+</t>
+    <t xml:space="preserve">0+</t>
   </si>
   <si>
-    <t>2+</t>
+    <t xml:space="preserve">1+</t>
   </si>
   <si>
-    <t>3+</t>
+    <t xml:space="preserve">2+</t>
   </si>
   <si>
-    <t>H-Score</t>
+    <t xml:space="preserve">3+</t>
   </si>
   <si>
-    <t>All</t>
+    <t xml:space="preserve">H-Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearest Neighbor Distances for Phenotype Pairs (microns)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="59">
+    <numFmt numFmtId="50000" formatCode="0%"/>
+    <numFmt numFmtId="50001" formatCode="0%"/>
+    <numFmt numFmtId="50002" formatCode="0%"/>
+    <numFmt numFmtId="50003" formatCode="0%"/>
+    <numFmt numFmtId="50004" formatCode="0%"/>
+    <numFmt numFmtId="50005" formatCode="0%"/>
+    <numFmt numFmtId="50006" formatCode="0%"/>
+    <numFmt numFmtId="50007" formatCode="0%"/>
+    <numFmt numFmtId="50008" formatCode="0%"/>
+    <numFmt numFmtId="50009" formatCode="0%"/>
+    <numFmt numFmtId="50010" formatCode="0%"/>
+    <numFmt numFmtId="50011" formatCode="0%"/>
+    <numFmt numFmtId="50012" formatCode="0%"/>
+    <numFmt numFmtId="50013" formatCode="0%"/>
+    <numFmt numFmtId="50014" formatCode="0%"/>
+    <numFmt numFmtId="50015" formatCode="0.00"/>
+    <numFmt numFmtId="50016" formatCode="0.00"/>
+    <numFmt numFmtId="50017" formatCode="0.00"/>
+    <numFmt numFmtId="50018" formatCode="0.00"/>
+    <numFmt numFmtId="50019" formatCode="0.00"/>
+    <numFmt numFmtId="50020" formatCode="0"/>
+    <numFmt numFmtId="50021" formatCode="0"/>
+    <numFmt numFmtId="50022" formatCode="0"/>
+    <numFmt numFmtId="50023" formatCode="0"/>
+    <numFmt numFmtId="50024" formatCode="0"/>
+    <numFmt numFmtId="50025" formatCode="0"/>
+    <numFmt numFmtId="50026" formatCode="0"/>
+    <numFmt numFmtId="50027" formatCode="0"/>
+    <numFmt numFmtId="50028" formatCode="0"/>
+    <numFmt numFmtId="50029" formatCode="0"/>
+    <numFmt numFmtId="50030" formatCode="0"/>
+    <numFmt numFmtId="50031" formatCode="0"/>
+    <numFmt numFmtId="50032" formatCode="0"/>
+    <numFmt numFmtId="50033" formatCode="0"/>
+    <numFmt numFmtId="50034" formatCode="0"/>
+    <numFmt numFmtId="50035" formatCode="0.00"/>
+    <numFmt numFmtId="50036" formatCode="0.00"/>
+    <numFmt numFmtId="50037" formatCode="0.00"/>
+    <numFmt numFmtId="50038" formatCode="0.00"/>
+    <numFmt numFmtId="50039" formatCode="0.00"/>
+    <numFmt numFmtId="50040" formatCode="0.00"/>
+    <numFmt numFmtId="50041" formatCode="0.00"/>
+    <numFmt numFmtId="50042" formatCode="0.00"/>
+    <numFmt numFmtId="50043" formatCode="0.00"/>
+    <numFmt numFmtId="50044" formatCode="0.00"/>
+    <numFmt numFmtId="50045" formatCode="0.00"/>
+    <numFmt numFmtId="50046" formatCode="0.00"/>
+    <numFmt numFmtId="50047" formatCode="0.00"/>
+    <numFmt numFmtId="50048" formatCode="0.00"/>
+    <numFmt numFmtId="50049" formatCode="0.00"/>
+    <numFmt numFmtId="50050" formatCode="0.0%"/>
+    <numFmt numFmtId="50051" formatCode="0.0%"/>
+    <numFmt numFmtId="50052" formatCode="0.0%"/>
+    <numFmt numFmtId="50053" formatCode="0.0%"/>
+    <numFmt numFmtId="50054" formatCode="0.0%"/>
+    <numFmt numFmtId="50055" formatCode="0.0%"/>
+    <numFmt numFmtId="50056" formatCode="0.0%"/>
+    <numFmt numFmtId="50057" formatCode="0.0%"/>
+    <numFmt numFmtId="50058" formatCode="0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -147,10 +223,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <b/>
     </font>
     <font>
       <sz val="11"/>
@@ -175,31 +251,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -209,7 +279,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -221,8 +290,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -231,11 +298,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -250,87 +315,58 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -339,20 +375,28 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -366,77 +410,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="50000" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50001" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50002" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50003" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50004" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50005" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50006" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50007" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50008" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50009" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50010" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50011" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50012" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50013" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50014" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50015" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50016" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50017" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50018" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50019" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50020" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50021" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50022" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50023" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50024" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50025" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50026" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50027" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50028" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50029" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50030" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50031" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50032" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50033" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50034" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50035" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50036" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50037" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50038" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50039" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50040" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50041" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50042" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50043" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50044" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50045" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50046" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50047" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50048" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50049" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -445,20 +468,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="50050" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50051" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50052" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50053" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50054" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50055" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50056" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50057" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50058" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -740,17 +771,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,289 +790,290 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="18" t="n">
         <v>829</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="17" t="n">
         <v>897</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>86</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>54</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>20</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="10" t="n">
         <v>835</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>99</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>58</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>849</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="10" t="n">
         <v>1732</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="18" t="n">
         <v>27</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="18" t="n">
         <v>514</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="17" t="n">
         <v>634</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="9" t="n">
         <v>84</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>88</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>80</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>28</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="10" t="n">
         <v>1280</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="9" t="n">
         <v>108</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>115</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>92</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>542</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="10" t="n">
         <v>1914</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9">
+      <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="18" t="n">
         <v>18</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="18" t="n">
         <v>532</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="17" t="n">
         <v>607</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>108</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>98</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>13</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="10" t="n">
         <v>1202</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="14" t="n">
         <v>126</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="14" t="n">
         <v>103</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="14" t="n">
         <v>545</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="13" t="n">
         <v>1809</v>
       </c>
     </row>
@@ -1051,263 +1084,264 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19">
-        <v>8.9186176142697898E-3</v>
-      </c>
-      <c r="D3" s="21">
-        <v>1.4492753623188401E-2</v>
-      </c>
-      <c r="E3" s="21">
-        <v>4.4593088071348897E-3</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.92419175027870704</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="C3" s="24" t="n">
+        <v>0.00891861761426979</v>
+      </c>
+      <c r="D3" s="26" t="n">
+        <v>0.0144927536231884</v>
+      </c>
+      <c r="E3" s="26" t="n">
+        <v>0.00445930880713489</v>
+      </c>
+      <c r="F3" s="26" t="n">
+        <v>0.924191750278707</v>
+      </c>
+      <c r="G3" s="25" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14">
-        <v>2.6347305389221601E-2</v>
-      </c>
-      <c r="D4" s="28">
+      <c r="C4" s="19" t="n">
+        <v>0.0263473053892216</v>
+      </c>
+      <c r="D4" s="33" t="n">
         <v>0.102994011976048</v>
       </c>
-      <c r="E4" s="28">
-        <v>6.4670658682634705E-2</v>
-      </c>
-      <c r="F4" s="28">
-        <v>2.39520958083832E-2</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="E4" s="33" t="n">
+        <v>0.0646706586826347</v>
+      </c>
+      <c r="F4" s="33" t="n">
+        <v>0.0239520958083832</v>
+      </c>
+      <c r="G4" s="20" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14">
-        <v>1.7321016166281799E-2</v>
-      </c>
-      <c r="D5" s="28">
-        <v>5.7159353348729798E-2</v>
-      </c>
-      <c r="E5" s="28">
-        <v>3.3487297921478101E-2</v>
-      </c>
-      <c r="F5" s="28">
+      <c r="C5" s="19" t="n">
+        <v>0.0173210161662818</v>
+      </c>
+      <c r="D5" s="33" t="n">
+        <v>0.0571593533487298</v>
+      </c>
+      <c r="E5" s="33" t="n">
+        <v>0.0334872979214781</v>
+      </c>
+      <c r="F5" s="33" t="n">
         <v>0.490184757505774</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="20" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="22">
-        <v>3.7854889589905398E-2</v>
-      </c>
-      <c r="D6" s="24">
-        <v>4.2586750788643497E-2</v>
-      </c>
-      <c r="E6" s="24">
-        <v>1.8927444794952699E-2</v>
-      </c>
-      <c r="F6" s="24">
-        <v>0.81072555205047303</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="C6" s="27" t="n">
+        <v>0.0378548895899054</v>
+      </c>
+      <c r="D6" s="29" t="n">
+        <v>0.0425867507886435</v>
+      </c>
+      <c r="E6" s="29" t="n">
+        <v>0.0189274447949527</v>
+      </c>
+      <c r="F6" s="29" t="n">
+        <v>0.810725552050473</v>
+      </c>
+      <c r="G6" s="28" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14">
-        <v>6.5625000000000003E-2</v>
-      </c>
-      <c r="D7" s="28">
-        <v>6.8750000000000006E-2</v>
-      </c>
-      <c r="E7" s="28">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F7" s="28">
-        <v>2.1874999999999999E-2</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="C7" s="19" t="n">
+        <v>0.065625</v>
+      </c>
+      <c r="D7" s="33" t="n">
+        <v>0.06875</v>
+      </c>
+      <c r="E7" s="33" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="F7" s="33" t="n">
+        <v>0.021875</v>
+      </c>
+      <c r="G7" s="20" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="14">
-        <v>5.6426332288401299E-2</v>
-      </c>
-      <c r="D8" s="28">
-        <v>6.0083594566353198E-2</v>
-      </c>
-      <c r="E8" s="28">
-        <v>4.80668756530825E-2</v>
-      </c>
-      <c r="F8" s="28">
-        <v>0.28317659352142099</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="C8" s="19" t="n">
+        <v>0.0564263322884013</v>
+      </c>
+      <c r="D8" s="33" t="n">
+        <v>0.0600835945663532</v>
+      </c>
+      <c r="E8" s="33" t="n">
+        <v>0.0480668756530825</v>
+      </c>
+      <c r="F8" s="33" t="n">
+        <v>0.283176593521421</v>
+      </c>
+      <c r="G8" s="20" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9">
+      <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="25">
-        <v>1.1532125205930799E-2</v>
-      </c>
-      <c r="D9" s="27">
-        <v>2.96540362438221E-2</v>
-      </c>
-      <c r="E9" s="27">
-        <v>8.2372322899505798E-3</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0.87644151565074102</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="C9" s="30" t="n">
+        <v>0.0115321252059308</v>
+      </c>
+      <c r="D9" s="32" t="n">
+        <v>0.0296540362438221</v>
+      </c>
+      <c r="E9" s="32" t="n">
+        <v>0.00823723228995058</v>
+      </c>
+      <c r="F9" s="32" t="n">
+        <v>0.876441515650741</v>
+      </c>
+      <c r="G9" s="31" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14">
-        <v>3.57737104825291E-2</v>
-      </c>
-      <c r="D10" s="28">
-        <v>8.9850249584026598E-2</v>
-      </c>
-      <c r="E10" s="28">
-        <v>8.1530782029950094E-2</v>
-      </c>
-      <c r="F10" s="28">
-        <v>1.08153078202995E-2</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="C10" s="19" t="n">
+        <v>0.0357737104825291</v>
+      </c>
+      <c r="D10" s="33" t="n">
+        <v>0.0898502495840266</v>
+      </c>
+      <c r="E10" s="33" t="n">
+        <v>0.0815307820299501</v>
+      </c>
+      <c r="F10" s="33" t="n">
+        <v>0.0108153078202995</v>
+      </c>
+      <c r="G10" s="20" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16">
-        <v>2.7639579878385799E-2</v>
-      </c>
-      <c r="D11" s="18">
-        <v>6.9651741293532299E-2</v>
-      </c>
-      <c r="E11" s="18">
-        <v>5.6937534549474797E-2</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0.30127142067440599</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="C11" s="21" t="n">
+        <v>0.0276395798783858</v>
+      </c>
+      <c r="D11" s="23" t="n">
+        <v>0.0696517412935323</v>
+      </c>
+      <c r="E11" s="23" t="n">
+        <v>0.0569375345494748</v>
+      </c>
+      <c r="F11" s="23" t="n">
+        <v>0.301271420674406</v>
+      </c>
+      <c r="G11" s="22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1318,299 +1352,298 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="30">
-        <v>1.0451732499999999</v>
-      </c>
-      <c r="D3" s="39">
-        <v>7.6542334010174899</v>
-      </c>
-      <c r="E3" s="41">
-        <v>12.438129276653401</v>
-      </c>
-      <c r="F3" s="41">
-        <v>3.8271167005087401</v>
-      </c>
-      <c r="G3" s="41">
-        <v>793.16993618043705</v>
-      </c>
-      <c r="H3" s="40">
+      <c r="C3" s="35" t="n">
+        <v>1.04517325</v>
+      </c>
+      <c r="D3" s="44" t="n">
+        <v>7.65423340101749</v>
+      </c>
+      <c r="E3" s="46" t="n">
+        <v>12.4381292766534</v>
+      </c>
+      <c r="F3" s="46" t="n">
+        <v>3.82711670050874</v>
+      </c>
+      <c r="G3" s="46" t="n">
+        <v>793.169936180437</v>
+      </c>
+      <c r="H3" s="45" t="n">
         <v>858.230920089086</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33">
-        <v>0.90039124999999998</v>
-      </c>
-      <c r="D4" s="34">
+      <c r="C4" s="38" t="n">
+        <v>0.90039125</v>
+      </c>
+      <c r="D4" s="39" t="n">
         <v>24.4338225188217</v>
       </c>
-      <c r="E4" s="48">
-        <v>95.514033482666605</v>
-      </c>
-      <c r="F4" s="48">
-        <v>59.973928000744102</v>
-      </c>
-      <c r="G4" s="48">
-        <v>22.212565926201499</v>
-      </c>
-      <c r="H4" s="35">
-        <v>927.37462741891397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="53" t="n">
+        <v>95.5140334826666</v>
+      </c>
+      <c r="F4" s="53" t="n">
+        <v>59.9739280007441</v>
+      </c>
+      <c r="G4" s="53" t="n">
+        <v>22.2125659262015</v>
+      </c>
+      <c r="H4" s="40" t="n">
+        <v>927.374627418914</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="33">
-        <v>1.9455644999999999</v>
-      </c>
-      <c r="D5" s="34">
+      <c r="C5" s="38" t="n">
+        <v>1.9455645</v>
+      </c>
+      <c r="D5" s="39" t="n">
         <v>15.4196892470026</v>
       </c>
-      <c r="E5" s="48">
-        <v>50.884974515108603</v>
-      </c>
-      <c r="F5" s="48">
-        <v>29.811399210871699</v>
-      </c>
-      <c r="G5" s="48">
-        <v>436.37720569017398</v>
-      </c>
-      <c r="H5" s="35">
-        <v>890.23005919361697</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="E5" s="53" t="n">
+        <v>50.8849745151086</v>
+      </c>
+      <c r="F5" s="53" t="n">
+        <v>29.8113992108717</v>
+      </c>
+      <c r="G5" s="53" t="n">
+        <v>436.377205690174</v>
+      </c>
+      <c r="H5" s="40" t="n">
+        <v>890.230059193617</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="31">
-        <v>0.77046325000000004</v>
-      </c>
-      <c r="D6" s="42">
-        <v>31.150090546174699</v>
-      </c>
-      <c r="E6" s="44">
-        <v>35.043851864446502</v>
-      </c>
-      <c r="F6" s="44">
+      <c r="C6" s="36" t="n">
+        <v>0.77046325</v>
+      </c>
+      <c r="D6" s="47" t="n">
+        <v>31.1500905461747</v>
+      </c>
+      <c r="E6" s="49" t="n">
+        <v>35.0438518644465</v>
+      </c>
+      <c r="F6" s="49" t="n">
         <v>15.5750452730873</v>
       </c>
-      <c r="G6" s="44">
-        <v>667.13110586390701</v>
-      </c>
-      <c r="H6" s="43">
-        <v>822.88155859478002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="49" t="n">
+        <v>667.131105863907</v>
+      </c>
+      <c r="H6" s="48" t="n">
+        <v>822.88155859478</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="38" t="n">
         <v>1.18385425</v>
       </c>
-      <c r="D7" s="34">
-        <v>70.954680443137306</v>
-      </c>
-      <c r="E7" s="48">
-        <v>74.333474749953396</v>
-      </c>
-      <c r="F7" s="48">
-        <v>67.575886136321301</v>
-      </c>
-      <c r="G7" s="48">
-        <v>23.651560147712399</v>
-      </c>
-      <c r="H7" s="35">
-        <v>1081.2141781811399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="39" t="n">
+        <v>70.9546804431373</v>
+      </c>
+      <c r="E7" s="53" t="n">
+        <v>74.3334747499534</v>
+      </c>
+      <c r="F7" s="53" t="n">
+        <v>67.5758861363213</v>
+      </c>
+      <c r="G7" s="53" t="n">
+        <v>23.6515601477124</v>
+      </c>
+      <c r="H7" s="40" t="n">
+        <v>1081.21417818114</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="33">
-        <v>1.9543174999999999</v>
-      </c>
-      <c r="D8" s="34">
-        <v>55.262259075099102</v>
-      </c>
-      <c r="E8" s="48">
-        <v>58.844072163299998</v>
-      </c>
-      <c r="F8" s="48">
-        <v>47.075257730639997</v>
-      </c>
-      <c r="G8" s="48">
-        <v>277.33467054355299</v>
-      </c>
-      <c r="H8" s="35">
-        <v>979.37003583092303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="C8" s="38" t="n">
+        <v>1.9543175</v>
+      </c>
+      <c r="D8" s="39" t="n">
+        <v>55.2622590750991</v>
+      </c>
+      <c r="E8" s="53" t="n">
+        <v>58.8440721633</v>
+      </c>
+      <c r="F8" s="53" t="n">
+        <v>47.07525773064</v>
+      </c>
+      <c r="G8" s="53" t="n">
+        <v>277.334670543553</v>
+      </c>
+      <c r="H8" s="40" t="n">
+        <v>979.370035830923</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="37" t="n">
         <v>0.789072</v>
       </c>
-      <c r="D9" s="45">
-        <v>8.8711803232151194</v>
-      </c>
-      <c r="E9" s="47">
-        <v>22.811606545410299</v>
-      </c>
-      <c r="F9" s="47">
-        <v>6.3365573737250802</v>
-      </c>
-      <c r="G9" s="47">
-        <v>674.20970456434895</v>
-      </c>
-      <c r="H9" s="46">
+      <c r="D9" s="50" t="n">
+        <v>8.87118032321512</v>
+      </c>
+      <c r="E9" s="52" t="n">
+        <v>22.8116065454103</v>
+      </c>
+      <c r="F9" s="52" t="n">
+        <v>6.33655737372508</v>
+      </c>
+      <c r="G9" s="52" t="n">
+        <v>674.209704564349</v>
+      </c>
+      <c r="H9" s="51" t="n">
         <v>769.258065170225</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="33">
-        <v>1.1675869999999999</v>
-      </c>
-      <c r="D10" s="34">
+      <c r="C10" s="38" t="n">
+        <v>1.167587</v>
+      </c>
+      <c r="D10" s="39" t="n">
         <v>36.8280907546932</v>
       </c>
-      <c r="E10" s="48">
-        <v>92.498460500159695</v>
-      </c>
-      <c r="F10" s="48">
-        <v>83.933788231626394</v>
-      </c>
-      <c r="G10" s="48">
-        <v>11.134073949093301</v>
-      </c>
-      <c r="H10" s="35">
+      <c r="E10" s="53" t="n">
+        <v>92.4984605001597</v>
+      </c>
+      <c r="F10" s="53" t="n">
+        <v>83.9337882316264</v>
+      </c>
+      <c r="G10" s="53" t="n">
+        <v>11.1340739490933</v>
+      </c>
+      <c r="H10" s="40" t="n">
         <v>1029.4736066777</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="29">
-        <v>1.9566589999999999</v>
-      </c>
-      <c r="D11" s="36">
+      <c r="C11" s="34" t="n">
+        <v>1.956659</v>
+      </c>
+      <c r="D11" s="41" t="n">
         <v>25.5537628171286</v>
       </c>
-      <c r="E11" s="38">
-        <v>64.395482299164001</v>
-      </c>
-      <c r="F11" s="38">
-        <v>52.640751403284902</v>
-      </c>
-      <c r="G11" s="38">
-        <v>278.53601470670202</v>
-      </c>
-      <c r="H11" s="37">
-        <v>924.53513872371195</v>
+      <c r="E11" s="43" t="n">
+        <v>64.395482299164</v>
+      </c>
+      <c r="F11" s="43" t="n">
+        <v>52.6407514032849</v>
+      </c>
+      <c r="G11" s="43" t="n">
+        <v>278.536014706702</v>
+      </c>
+      <c r="H11" s="42" t="n">
+        <v>924.535138723712</v>
       </c>
     </row>
   </sheetData>
@@ -1621,236 +1654,238 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BCDDEB-6D70-41FA-88CF-8DDEFC13D918}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="6" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="14.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="14.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="14.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="54">
-        <v>0.85612500000000002</v>
-      </c>
-      <c r="D3" s="56">
-        <v>7.4340000000000002</v>
-      </c>
-      <c r="E3" s="56">
-        <v>5.9608461538461501</v>
-      </c>
-      <c r="F3" s="55">
-        <v>0.94740530759951702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="59" t="n">
+        <v>0.856125</v>
+      </c>
+      <c r="D3" s="61" t="n">
+        <v>7.434</v>
+      </c>
+      <c r="E3" s="61" t="n">
+        <v>5.96084615384615</v>
+      </c>
+      <c r="F3" s="60" t="n">
+        <v>0.947405307599517</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="49">
-        <v>2.0345454545454502</v>
-      </c>
-      <c r="D4" s="57">
-        <v>6.9346363636363604</v>
-      </c>
-      <c r="E4" s="57">
-        <v>5.0364418604651204</v>
-      </c>
-      <c r="F4" s="50">
-        <v>2.0013000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="54" t="n">
+        <v>2.03454545454545</v>
+      </c>
+      <c r="D4" s="68" t="n">
+        <v>6.93463636363636</v>
+      </c>
+      <c r="E4" s="68" t="n">
+        <v>5.03644186046512</v>
+      </c>
+      <c r="F4" s="55" t="n">
+        <v>2.0013</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="49">
-        <v>1.7202999999999999</v>
-      </c>
-      <c r="D5" s="57">
-        <v>7.0678000000000001</v>
-      </c>
-      <c r="E5" s="57">
-        <v>5.1578282828282802</v>
-      </c>
-      <c r="F5" s="50">
-        <v>0.97223203769140198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="54" t="n">
+        <v>1.7203</v>
+      </c>
+      <c r="D5" s="68" t="n">
+        <v>7.0678</v>
+      </c>
+      <c r="E5" s="68" t="n">
+        <v>5.15782828282828</v>
+      </c>
+      <c r="F5" s="55" t="n">
+        <v>0.972232037691402</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="54">
-        <v>3.3574999999999999</v>
-      </c>
-      <c r="D6" s="56">
-        <v>2.8589166666666701</v>
-      </c>
-      <c r="E6" s="56">
-        <v>8.0460740740740704</v>
-      </c>
-      <c r="F6" s="55">
-        <v>3.7093463035019498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="62" t="n">
+        <v>3.3575</v>
+      </c>
+      <c r="D6" s="64" t="n">
+        <v>2.85891666666667</v>
+      </c>
+      <c r="E6" s="64" t="n">
+        <v>8.04607407407407</v>
+      </c>
+      <c r="F6" s="63" t="n">
+        <v>3.70934630350195</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="54" t="n">
         <v>2.33060714285714</v>
       </c>
-      <c r="D7" s="57">
-        <v>3.9114642857142901</v>
-      </c>
-      <c r="E7" s="57">
-        <v>6.4519659090909096</v>
-      </c>
-      <c r="F7" s="50">
-        <v>3.5571071428571401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="68" t="n">
+        <v>3.91146428571429</v>
+      </c>
+      <c r="E7" s="68" t="n">
+        <v>6.45196590909091</v>
+      </c>
+      <c r="F7" s="55" t="n">
+        <v>3.55710714285714</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="49">
-        <v>2.5588055555555602</v>
-      </c>
-      <c r="D8" s="57">
-        <v>3.6775648148148199</v>
-      </c>
-      <c r="E8" s="57">
+        <v>23</v>
+      </c>
+      <c r="C8" s="54" t="n">
+        <v>2.55880555555556</v>
+      </c>
+      <c r="D8" s="68" t="n">
+        <v>3.67756481481482</v>
+      </c>
+      <c r="E8" s="68" t="n">
         <v>6.8262347826087</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="55" t="n">
         <v>3.7014815498155</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9">
+      <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="54">
-        <v>1.9451428571428599</v>
-      </c>
-      <c r="D9" s="56">
-        <v>5.6408571428571399</v>
-      </c>
-      <c r="E9" s="56">
-        <v>4.9658888888888901</v>
-      </c>
-      <c r="F9" s="55">
-        <v>1.5052048872180499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="65" t="n">
+        <v>1.94514285714286</v>
+      </c>
+      <c r="D9" s="67" t="n">
+        <v>5.64085714285714</v>
+      </c>
+      <c r="E9" s="67" t="n">
+        <v>4.96588888888889</v>
+      </c>
+      <c r="F9" s="66" t="n">
+        <v>1.50520488721805</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="49">
-        <v>1.4887906976744201</v>
-      </c>
-      <c r="D10" s="57">
-        <v>5.6526279069767398</v>
-      </c>
-      <c r="E10" s="57">
-        <v>5.3861296296296297</v>
-      </c>
-      <c r="F10" s="50">
-        <v>2.7756153846153802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="C10" s="54" t="n">
+        <v>1.48879069767442</v>
+      </c>
+      <c r="D10" s="68" t="n">
+        <v>5.65262790697674</v>
+      </c>
+      <c r="E10" s="68" t="n">
+        <v>5.38612962962963</v>
+      </c>
+      <c r="F10" s="55" t="n">
+        <v>2.77561538461538</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="51">
-        <v>1.5526800000000001</v>
-      </c>
-      <c r="D11" s="53">
-        <v>5.6509799999999997</v>
-      </c>
-      <c r="E11" s="53">
+      <c r="B11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="56" t="n">
+        <v>1.55268</v>
+      </c>
+      <c r="D11" s="58" t="n">
+        <v>5.65098</v>
+      </c>
+      <c r="E11" s="58" t="n">
         <v>5.32609523809524</v>
       </c>
-      <c r="F11" s="52">
-        <v>1.5355082568807299</v>
+      <c r="F11" s="57" t="n">
+        <v>1.53550825688073</v>
       </c>
     </row>
   </sheetData>
@@ -1860,408 +1895,407 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="66" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="66" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="74" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="70" t="s">
+      <c r="J3" s="76" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="K3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="16" t="n">
         <v>814</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="18" t="n">
         <v>56</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="18" t="n">
         <v>18</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="G4" s="62">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="H4" s="62">
-        <v>6.2E-2</v>
-      </c>
-      <c r="I4" s="62">
+      <c r="G4" s="77" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="H4" s="77" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I4" s="77" t="n">
         <v>0.02</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="77" t="n">
         <v>0.01</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="17" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="9" t="n">
         <v>566</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>169</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>51</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>49</v>
       </c>
-      <c r="G5" s="65">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="H5" s="65">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="I5" s="65">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="J5" s="65">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="G5" s="80" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="H5" s="80" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="I5" s="80" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="J5" s="80" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="K5" s="10" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="9" t="n">
         <v>1380</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>225</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>69</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>58</v>
       </c>
-      <c r="G6" s="65">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="H6" s="65">
+      <c r="G6" s="80" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="H6" s="80" t="n">
         <v>0.13</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="80" t="n">
         <v>0.04</v>
       </c>
-      <c r="J6" s="65">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="J6" s="80" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="K6" s="10" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7">
+      <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="16" t="n">
         <v>414</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="18" t="n">
         <v>109</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="18" t="n">
         <v>56</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="18" t="n">
         <v>55</v>
       </c>
-      <c r="G7" s="63">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="H7" s="63">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="I7" s="63">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="J7" s="63">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="G7" s="78" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="H7" s="78" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="I7" s="78" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="J7" s="78" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="K7" s="17" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="9" t="n">
         <v>843</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>263</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>72</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>102</v>
       </c>
-      <c r="G8" s="65">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="H8" s="65">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="I8" s="65">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="J8" s="65">
+      <c r="G8" s="80" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="H8" s="80" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I8" s="80" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="J8" s="80" t="n">
         <v>0.08</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="10" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="9" t="n">
         <v>1257</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>372</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>128</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>157</v>
       </c>
-      <c r="G9" s="65">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="H9" s="65">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="I9" s="65">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="J9" s="65">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="G9" s="80" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="H9" s="80" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="I9" s="80" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="J9" s="80" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="K9" s="10" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10">
+      <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="16" t="n">
         <v>527</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="18" t="n">
         <v>57</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="G10" s="64">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H10" s="64">
-        <v>9.4E-2</v>
-      </c>
-      <c r="I10" s="64">
-        <v>1.6E-2</v>
-      </c>
-      <c r="J10" s="64">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="G10" s="79" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="H10" s="79" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="I10" s="79" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="J10" s="79" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="K10" s="17" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="9" t="n">
         <v>927</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>164</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>66</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>45</v>
       </c>
-      <c r="G11" s="65">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="H11" s="65">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="I11" s="65">
-        <v>5.5E-2</v>
-      </c>
-      <c r="J11" s="65">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="G11" s="80" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="H11" s="80" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="I11" s="80" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="J11" s="80" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="K11" s="10" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12">
+      <c r="A12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="12" t="n">
         <v>1454</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="14" t="n">
         <v>221</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="14" t="n">
         <v>76</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="14" t="n">
         <v>58</v>
       </c>
-      <c r="G12" s="9">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="G12" s="14" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="H12" s="14" t="n">
         <v>0.122</v>
       </c>
-      <c r="I12" s="9">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="J12" s="9">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="I12" s="14" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="J12" s="14" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="K12" s="13" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2275,6 +2309,2021 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="81" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" s="81" t="n">
+        <v>112.360241471453</v>
+      </c>
+      <c r="F3" s="81" t="n">
+        <v>86.7570139100798</v>
+      </c>
+      <c r="G3" s="81" t="n">
+        <v>314.700651413371</v>
+      </c>
+      <c r="H3" s="81" t="n">
+        <v>86.5509684589544</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="81" t="n">
+        <v>7.0178344238091</v>
+      </c>
+      <c r="E4" s="81" t="n">
+        <v>145.675592407323</v>
+      </c>
+      <c r="F4" s="81" t="n">
+        <v>122.218042857837</v>
+      </c>
+      <c r="G4" s="81" t="n">
+        <v>472.358179774628</v>
+      </c>
+      <c r="H4" s="81" t="n">
+        <v>104.758885254683</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="81" t="n">
+        <v>9.5524865872714</v>
+      </c>
+      <c r="E5" s="81" t="n">
+        <v>120.52857879525</v>
+      </c>
+      <c r="F5" s="81" t="n">
+        <v>102.870573582662</v>
+      </c>
+      <c r="G5" s="81" t="n">
+        <v>388.390589484349</v>
+      </c>
+      <c r="H5" s="81" t="n">
+        <v>78.5187404413911</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="81" t="n">
+        <v>7.10633520177595</v>
+      </c>
+      <c r="E6" s="81" t="n">
+        <v>158.357088024028</v>
+      </c>
+      <c r="F6" s="81" t="n">
+        <v>144.996551683135</v>
+      </c>
+      <c r="G6" s="81" t="n">
+        <v>498.231371954838</v>
+      </c>
+      <c r="H6" s="81" t="n">
+        <v>83.5507926452232</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="81" t="n">
+        <v>7.0178344238091</v>
+      </c>
+      <c r="E7" s="81" t="n">
+        <v>147.910429021565</v>
+      </c>
+      <c r="F7" s="81" t="n">
+        <v>127.963371778513</v>
+      </c>
+      <c r="G7" s="81" t="n">
+        <v>568.208808449852</v>
+      </c>
+      <c r="H7" s="81" t="n">
+        <v>91.8059670108213</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="81" t="n">
+        <v>7.0178344238091</v>
+      </c>
+      <c r="E8" s="81" t="n">
+        <v>94.1753233722826</v>
+      </c>
+      <c r="F8" s="81" t="n">
+        <v>61.3173336270281</v>
+      </c>
+      <c r="G8" s="81" t="n">
+        <v>273.333587398256</v>
+      </c>
+      <c r="H8" s="81" t="n">
+        <v>72.75283002714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="81" t="n">
+        <v>4.60977222864644</v>
+      </c>
+      <c r="E9" s="81" t="n">
+        <v>62.7576115688262</v>
+      </c>
+      <c r="F9" s="81" t="n">
+        <v>55.3263047744922</v>
+      </c>
+      <c r="G9" s="81" t="n">
+        <v>274.832676368732</v>
+      </c>
+      <c r="H9" s="81" t="n">
+        <v>53.2767358222331</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="81" t="n">
+        <v>9.96242942258564</v>
+      </c>
+      <c r="E10" s="81" t="n">
+        <v>65.1406667944181</v>
+      </c>
+      <c r="F10" s="81" t="n">
+        <v>52.3726344580374</v>
+      </c>
+      <c r="G10" s="81" t="n">
+        <v>205.027437188294</v>
+      </c>
+      <c r="H10" s="81" t="n">
+        <v>44.6369811112837</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="81" t="n">
+        <v>6.02079728939615</v>
+      </c>
+      <c r="E11" s="81" t="n">
+        <v>119.893509846484</v>
+      </c>
+      <c r="F11" s="81" t="n">
+        <v>108.955266049879</v>
+      </c>
+      <c r="G11" s="81" t="n">
+        <v>319.262039710329</v>
+      </c>
+      <c r="H11" s="81" t="n">
+        <v>62.5786891988972</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="81" t="n">
+        <v>4.60977222864644</v>
+      </c>
+      <c r="E12" s="81" t="n">
+        <v>98.9361051645926</v>
+      </c>
+      <c r="F12" s="81" t="n">
+        <v>86.1140011505769</v>
+      </c>
+      <c r="G12" s="81" t="n">
+        <v>319.262039710329</v>
+      </c>
+      <c r="H12" s="81" t="n">
+        <v>64.1920141775458</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="81" t="n">
+        <v>9.5524865872714</v>
+      </c>
+      <c r="E13" s="81" t="n">
+        <v>88.3140357010177</v>
+      </c>
+      <c r="F13" s="81" t="n">
+        <v>72.1409723316702</v>
+      </c>
+      <c r="G13" s="81" t="n">
+        <v>279.480321310821</v>
+      </c>
+      <c r="H13" s="81" t="n">
+        <v>65.0542036453478</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="81" t="n">
+        <v>9.96242942258564</v>
+      </c>
+      <c r="E14" s="81" t="n">
+        <v>84.3904662123998</v>
+      </c>
+      <c r="F14" s="81" t="n">
+        <v>66.5920415665416</v>
+      </c>
+      <c r="G14" s="81" t="n">
+        <v>379.307263310367</v>
+      </c>
+      <c r="H14" s="81" t="n">
+        <v>67.7226239616744</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="81" t="n">
+        <v>5.70087712549569</v>
+      </c>
+      <c r="E15" s="81" t="n">
+        <v>93.2599557126753</v>
+      </c>
+      <c r="F15" s="81" t="n">
+        <v>53.751309059802</v>
+      </c>
+      <c r="G15" s="81" t="n">
+        <v>492.447966794462</v>
+      </c>
+      <c r="H15" s="81" t="n">
+        <v>87.4090181933804</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="81" t="n">
+        <v>11.1803398874989</v>
+      </c>
+      <c r="E16" s="81" t="n">
+        <v>132.714405645171</v>
+      </c>
+      <c r="F16" s="81" t="n">
+        <v>124.636471387792</v>
+      </c>
+      <c r="G16" s="81" t="n">
+        <v>382.62416285436</v>
+      </c>
+      <c r="H16" s="81" t="n">
+        <v>62.2384969630427</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="81" t="n">
+        <v>5.22015325445528</v>
+      </c>
+      <c r="E17" s="81" t="n">
+        <v>112.820610645588</v>
+      </c>
+      <c r="F17" s="81" t="n">
+        <v>101.443333905815</v>
+      </c>
+      <c r="G17" s="81" t="n">
+        <v>492.447966794462</v>
+      </c>
+      <c r="H17" s="81" t="n">
+        <v>70.0077314665705</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="81" t="n">
+        <v>7.10633520177595</v>
+      </c>
+      <c r="E18" s="81" t="n">
+        <v>43.9462152375741</v>
+      </c>
+      <c r="F18" s="81" t="n">
+        <v>37.9098351815257</v>
+      </c>
+      <c r="G18" s="81" t="n">
+        <v>112.642132437201</v>
+      </c>
+      <c r="H18" s="81" t="n">
+        <v>26.6307153417487</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="81" t="n">
+        <v>6.02079728939615</v>
+      </c>
+      <c r="E19" s="81" t="n">
+        <v>61.1622394346439</v>
+      </c>
+      <c r="F19" s="81" t="n">
+        <v>59.6259171837214</v>
+      </c>
+      <c r="G19" s="81" t="n">
+        <v>142.443848586031</v>
+      </c>
+      <c r="H19" s="81" t="n">
+        <v>34.7752061374764</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="81" t="n">
+        <v>11.1803398874989</v>
+      </c>
+      <c r="E20" s="81" t="n">
+        <v>58.8687055162667</v>
+      </c>
+      <c r="F20" s="81" t="n">
+        <v>44.8498981171918</v>
+      </c>
+      <c r="G20" s="81" t="n">
+        <v>159.521942064407</v>
+      </c>
+      <c r="H20" s="81" t="n">
+        <v>37.2722510084883</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="81" t="n">
+        <v>2.69258240356725</v>
+      </c>
+      <c r="E21" s="81" t="n">
+        <v>20.1607043123812</v>
+      </c>
+      <c r="F21" s="81" t="n">
+        <v>17.0293863659264</v>
+      </c>
+      <c r="G21" s="81" t="n">
+        <v>243.100802137714</v>
+      </c>
+      <c r="H21" s="81" t="n">
+        <v>15.6862029788858</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="81" t="n">
+        <v>2.69258240356725</v>
+      </c>
+      <c r="E22" s="81" t="n">
+        <v>36.5596265756997</v>
+      </c>
+      <c r="F22" s="81" t="n">
+        <v>27.0092005746679</v>
+      </c>
+      <c r="G22" s="81" t="n">
+        <v>243.100802137714</v>
+      </c>
+      <c r="H22" s="81" t="n">
+        <v>29.5025299901688</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="81" t="n">
+        <v>7.0178344238091</v>
+      </c>
+      <c r="E23" s="81" t="n">
+        <v>16.0585602613075</v>
+      </c>
+      <c r="F23" s="81" t="n">
+        <v>16.9478719023033</v>
+      </c>
+      <c r="G23" s="81" t="n">
+        <v>32.5345969699949</v>
+      </c>
+      <c r="H23" s="81" t="n">
+        <v>6.47190019002211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="81" t="n">
+        <v>4.60977222864644</v>
+      </c>
+      <c r="E24" s="81" t="n">
+        <v>17.130552006289</v>
+      </c>
+      <c r="F24" s="81" t="n">
+        <v>16.140012391569</v>
+      </c>
+      <c r="G24" s="81" t="n">
+        <v>54.6122696836526</v>
+      </c>
+      <c r="H24" s="81" t="n">
+        <v>8.85404589175461</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="81" t="n">
+        <v>5.22015325445528</v>
+      </c>
+      <c r="E25" s="81" t="n">
+        <v>17.6312074147169</v>
+      </c>
+      <c r="F25" s="81" t="n">
+        <v>16.7031857956667</v>
+      </c>
+      <c r="G25" s="81" t="n">
+        <v>33.4551939166402</v>
+      </c>
+      <c r="H25" s="81" t="n">
+        <v>7.66331023678309</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="81" t="n">
+        <v>2.69258240356725</v>
+      </c>
+      <c r="E26" s="81" t="n">
+        <v>17.4568106613729</v>
+      </c>
+      <c r="F26" s="81" t="n">
+        <v>16.1012421881046</v>
+      </c>
+      <c r="G26" s="81" t="n">
+        <v>56.6083032778761</v>
+      </c>
+      <c r="H26" s="81" t="n">
+        <v>8.7444246079124</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="81" t="n">
+        <v>2.69258240356725</v>
+      </c>
+      <c r="E27" s="81" t="n">
+        <v>17.3994270806697</v>
+      </c>
+      <c r="F27" s="81" t="n">
+        <v>16.140012391569</v>
+      </c>
+      <c r="G27" s="81" t="n">
+        <v>56.6083032778761</v>
+      </c>
+      <c r="H27" s="81" t="n">
+        <v>8.54429824788673</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="81" t="n">
+        <v>4.30116263352131</v>
+      </c>
+      <c r="E28" s="81" t="n">
+        <v>58.4193362198566</v>
+      </c>
+      <c r="F28" s="81" t="n">
+        <v>51.1623116679132</v>
+      </c>
+      <c r="G28" s="81" t="n">
+        <v>208.041462213665</v>
+      </c>
+      <c r="H28" s="81" t="n">
+        <v>46.3202298115643</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="81" t="n">
+        <v>9.21954445729289</v>
+      </c>
+      <c r="E29" s="81" t="n">
+        <v>85.7999383650154</v>
+      </c>
+      <c r="F29" s="81" t="n">
+        <v>76.7609926981146</v>
+      </c>
+      <c r="G29" s="81" t="n">
+        <v>216.806941770784</v>
+      </c>
+      <c r="H29" s="81" t="n">
+        <v>48.016637860659</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="81" t="n">
+        <v>6.70820393249937</v>
+      </c>
+      <c r="E30" s="81" t="n">
+        <v>71.5469796637841</v>
+      </c>
+      <c r="F30" s="81" t="n">
+        <v>69.1295110992583</v>
+      </c>
+      <c r="G30" s="81" t="n">
+        <v>175.668010747546</v>
+      </c>
+      <c r="H30" s="81" t="n">
+        <v>39.9516166847629</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="81" t="n">
+        <v>4.60977222864644</v>
+      </c>
+      <c r="E31" s="81" t="n">
+        <v>89.0401193331632</v>
+      </c>
+      <c r="F31" s="81" t="n">
+        <v>77.334336822418</v>
+      </c>
+      <c r="G31" s="81" t="n">
+        <v>304.394891547148</v>
+      </c>
+      <c r="H31" s="81" t="n">
+        <v>54.817228238062</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="81" t="n">
+        <v>4.27200187265877</v>
+      </c>
+      <c r="E32" s="81" t="n">
+        <v>75.1801312146515</v>
+      </c>
+      <c r="F32" s="81" t="n">
+        <v>66.0955746775271</v>
+      </c>
+      <c r="G32" s="81" t="n">
+        <v>336.634074329976</v>
+      </c>
+      <c r="H32" s="81" t="n">
+        <v>48.0253228868263</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="81" t="n">
+        <v>9.21954445729289</v>
+      </c>
+      <c r="E33" s="81" t="n">
+        <v>91.8310751848523</v>
+      </c>
+      <c r="F33" s="81" t="n">
+        <v>82.1916393203797</v>
+      </c>
+      <c r="G33" s="81" t="n">
+        <v>254.244960618692</v>
+      </c>
+      <c r="H33" s="81" t="n">
+        <v>50.8450129960246</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="81" t="n">
+        <v>5.1478150704935</v>
+      </c>
+      <c r="E34" s="81" t="n">
+        <v>54.0235078412065</v>
+      </c>
+      <c r="F34" s="81" t="n">
+        <v>43.4885042281291</v>
+      </c>
+      <c r="G34" s="81" t="n">
+        <v>349.858900129752</v>
+      </c>
+      <c r="H34" s="81" t="n">
+        <v>54.3681584976951</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E35" s="81" t="n">
+        <v>78.3627935235487</v>
+      </c>
+      <c r="F35" s="81" t="n">
+        <v>66.2015261151397</v>
+      </c>
+      <c r="G35" s="81" t="n">
+        <v>240.19679431666</v>
+      </c>
+      <c r="H35" s="81" t="n">
+        <v>53.2336316884088</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="81" t="n">
+        <v>5.70087712549569</v>
+      </c>
+      <c r="E36" s="81" t="n">
+        <v>89.91985814527</v>
+      </c>
+      <c r="F36" s="81" t="n">
+        <v>81.4568070695068</v>
+      </c>
+      <c r="G36" s="81" t="n">
+        <v>278.352294763309</v>
+      </c>
+      <c r="H36" s="81" t="n">
+        <v>50.8789638418199</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="81" t="n">
+        <v>5.1478150704935</v>
+      </c>
+      <c r="E37" s="81" t="n">
+        <v>82.1344048960952</v>
+      </c>
+      <c r="F37" s="81" t="n">
+        <v>71.1836744044249</v>
+      </c>
+      <c r="G37" s="81" t="n">
+        <v>349.858900129752</v>
+      </c>
+      <c r="H37" s="81" t="n">
+        <v>51.7184540746234</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="81" t="n">
+        <v>6.70820393249937</v>
+      </c>
+      <c r="E38" s="81" t="n">
+        <v>80.9981713921275</v>
+      </c>
+      <c r="F38" s="81" t="n">
+        <v>79.1596425117818</v>
+      </c>
+      <c r="G38" s="81" t="n">
+        <v>238.287641307727</v>
+      </c>
+      <c r="H38" s="81" t="n">
+        <v>49.955376626069</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E39" s="81" t="n">
+        <v>78.7630971908153</v>
+      </c>
+      <c r="F39" s="81" t="n">
+        <v>67.5166646095614</v>
+      </c>
+      <c r="G39" s="81" t="n">
+        <v>238.02573390287</v>
+      </c>
+      <c r="H39" s="81" t="n">
+        <v>48.0989768925614</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="81" t="n">
+        <v>5.70087712549569</v>
+      </c>
+      <c r="E40" s="81" t="n">
+        <v>67.228416347836</v>
+      </c>
+      <c r="F40" s="81" t="n">
+        <v>50.892639967476</v>
+      </c>
+      <c r="G40" s="81" t="n">
+        <v>310.150366757803</v>
+      </c>
+      <c r="H40" s="81" t="n">
+        <v>58.3084384269942</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="81" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" s="81" t="n">
+        <v>95.8608505343594</v>
+      </c>
+      <c r="F41" s="81" t="n">
+        <v>88.8092411439156</v>
+      </c>
+      <c r="G41" s="81" t="n">
+        <v>283.405186967352</v>
+      </c>
+      <c r="H41" s="81" t="n">
+        <v>50.706140376311</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="81" t="n">
+        <v>4.03112887414927</v>
+      </c>
+      <c r="E42" s="81" t="n">
+        <v>79.5164499859618</v>
+      </c>
+      <c r="F42" s="81" t="n">
+        <v>70.1961514821294</v>
+      </c>
+      <c r="G42" s="81" t="n">
+        <v>310.150366757803</v>
+      </c>
+      <c r="H42" s="81" t="n">
+        <v>49.5713253371555</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="81" t="n">
+        <v>4.60977222864644</v>
+      </c>
+      <c r="E43" s="81" t="n">
+        <v>41.7337897216013</v>
+      </c>
+      <c r="F43" s="81" t="n">
+        <v>35.4929004356179</v>
+      </c>
+      <c r="G43" s="81" t="n">
+        <v>125.906711497045</v>
+      </c>
+      <c r="H43" s="81" t="n">
+        <v>26.0736566147258</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="81" t="n">
+        <v>5.70087712549569</v>
+      </c>
+      <c r="E44" s="81" t="n">
+        <v>41.1425242518254</v>
+      </c>
+      <c r="F44" s="81" t="n">
+        <v>36.7185239354743</v>
+      </c>
+      <c r="G44" s="81" t="n">
+        <v>106.230880632705</v>
+      </c>
+      <c r="H44" s="81" t="n">
+        <v>22.0251869959633</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="81" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" s="81" t="n">
+        <v>53.1573856786145</v>
+      </c>
+      <c r="F45" s="81" t="n">
+        <v>41.9686051753459</v>
+      </c>
+      <c r="G45" s="81" t="n">
+        <v>193.884630644102</v>
+      </c>
+      <c r="H45" s="81" t="n">
+        <v>34.4260069719504</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="81" t="n">
+        <v>3.64005494464026</v>
+      </c>
+      <c r="E46" s="81" t="n">
+        <v>24.4659530202583</v>
+      </c>
+      <c r="F46" s="81" t="n">
+        <v>20.1556443707464</v>
+      </c>
+      <c r="G46" s="81" t="n">
+        <v>142.311278541091</v>
+      </c>
+      <c r="H46" s="81" t="n">
+        <v>17.649786298513</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="81" t="n">
+        <v>3.64005494464026</v>
+      </c>
+      <c r="E47" s="81" t="n">
+        <v>41.3417441892049</v>
+      </c>
+      <c r="F47" s="81" t="n">
+        <v>35.7945526581909</v>
+      </c>
+      <c r="G47" s="81" t="n">
+        <v>219.367271943652</v>
+      </c>
+      <c r="H47" s="81" t="n">
+        <v>27.1977127150973</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="81" t="n">
+        <v>4.27200187265877</v>
+      </c>
+      <c r="E48" s="81" t="n">
+        <v>15.4041538188136</v>
+      </c>
+      <c r="F48" s="81" t="n">
+        <v>13.7568164921976</v>
+      </c>
+      <c r="G48" s="81" t="n">
+        <v>46.4004310324807</v>
+      </c>
+      <c r="H48" s="81" t="n">
+        <v>8.53888897851026</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="81" t="n">
+        <v>5.1478150704935</v>
+      </c>
+      <c r="E49" s="81" t="n">
+        <v>16.1702304516014</v>
+      </c>
+      <c r="F49" s="81" t="n">
+        <v>13.9014387744578</v>
+      </c>
+      <c r="G49" s="81" t="n">
+        <v>43.4885042281291</v>
+      </c>
+      <c r="H49" s="81" t="n">
+        <v>8.36645317824105</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="81" t="n">
+        <v>4.03112887414927</v>
+      </c>
+      <c r="E50" s="81" t="n">
+        <v>14.7590409098665</v>
+      </c>
+      <c r="F50" s="81" t="n">
+        <v>13.8653777301986</v>
+      </c>
+      <c r="G50" s="81" t="n">
+        <v>39.293765408777</v>
+      </c>
+      <c r="H50" s="81" t="n">
+        <v>7.80599618124147</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="81" t="n">
+        <v>3.64005494464026</v>
+      </c>
+      <c r="E51" s="81" t="n">
+        <v>17.2901742208106</v>
+      </c>
+      <c r="F51" s="81" t="n">
+        <v>16.0039052967911</v>
+      </c>
+      <c r="G51" s="81" t="n">
+        <v>61.0327780786685</v>
+      </c>
+      <c r="H51" s="81" t="n">
+        <v>8.59553063532249</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="81" t="n">
+        <v>2.69258240356725</v>
+      </c>
+      <c r="E52" s="81" t="n">
+        <v>16.0236334859154</v>
+      </c>
+      <c r="F52" s="81" t="n">
+        <v>14.7732867026942</v>
+      </c>
+      <c r="G52" s="81" t="n">
+        <v>61.0327780786685</v>
+      </c>
+      <c r="H52" s="81" t="n">
+        <v>8.16243954614328</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="81" t="n">
+        <v>8.54400374531753</v>
+      </c>
+      <c r="E53" s="81" t="n">
+        <v>85.9903040350093</v>
+      </c>
+      <c r="F53" s="81" t="n">
+        <v>70.8960506657458</v>
+      </c>
+      <c r="G53" s="81" t="n">
+        <v>295.777788212705</v>
+      </c>
+      <c r="H53" s="81" t="n">
+        <v>68.2494495153598</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="81" t="n">
+        <v>11</v>
+      </c>
+      <c r="E54" s="81" t="n">
+        <v>117.8127919199</v>
+      </c>
+      <c r="F54" s="81" t="n">
+        <v>100.671857571461</v>
+      </c>
+      <c r="G54" s="81" t="n">
+        <v>484.233414790842</v>
+      </c>
+      <c r="H54" s="81" t="n">
+        <v>90.5532176596654</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="81" t="n">
+        <v>6.9462219947249</v>
+      </c>
+      <c r="E55" s="81" t="n">
+        <v>101.100042414926</v>
+      </c>
+      <c r="F55" s="81" t="n">
+        <v>85.5862138431184</v>
+      </c>
+      <c r="G55" s="81" t="n">
+        <v>449.282205300855</v>
+      </c>
+      <c r="H55" s="81" t="n">
+        <v>70.4030578547912</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="81" t="n">
+        <v>8.86002257333467</v>
+      </c>
+      <c r="E56" s="81" t="n">
+        <v>153.254875209056</v>
+      </c>
+      <c r="F56" s="81" t="n">
+        <v>129.534744373855</v>
+      </c>
+      <c r="G56" s="81" t="n">
+        <v>557.995071662824</v>
+      </c>
+      <c r="H56" s="81" t="n">
+        <v>100.384555231936</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="81" t="n">
+        <v>4.94974746830583</v>
+      </c>
+      <c r="E57" s="81" t="n">
+        <v>118.237584203609</v>
+      </c>
+      <c r="F57" s="81" t="n">
+        <v>97.2522493313137</v>
+      </c>
+      <c r="G57" s="81" t="n">
+        <v>557.995071662824</v>
+      </c>
+      <c r="H57" s="81" t="n">
+        <v>87.116375349786</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="81" t="n">
+        <v>11</v>
+      </c>
+      <c r="E58" s="81" t="n">
+        <v>71.0722679024309</v>
+      </c>
+      <c r="F58" s="81" t="n">
+        <v>48.5444439415209</v>
+      </c>
+      <c r="G58" s="81" t="n">
+        <v>226.743246867465</v>
+      </c>
+      <c r="H58" s="81" t="n">
+        <v>57.7906384552586</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E59" s="81" t="n">
+        <v>50.5010717542068</v>
+      </c>
+      <c r="F59" s="81" t="n">
+        <v>41.8347447204192</v>
+      </c>
+      <c r="G59" s="81" t="n">
+        <v>191.724411591221</v>
+      </c>
+      <c r="H59" s="81" t="n">
+        <v>37.1286531628858</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="81" t="n">
+        <v>10.1242283656583</v>
+      </c>
+      <c r="E60" s="81" t="n">
+        <v>54.6844735021505</v>
+      </c>
+      <c r="F60" s="81" t="n">
+        <v>47.7126817523392</v>
+      </c>
+      <c r="G60" s="81" t="n">
+        <v>199.572042130154</v>
+      </c>
+      <c r="H60" s="81" t="n">
+        <v>33.4732715807698</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="81" t="n">
+        <v>8.86002257333467</v>
+      </c>
+      <c r="E61" s="81" t="n">
+        <v>91.7951466131767</v>
+      </c>
+      <c r="F61" s="81" t="n">
+        <v>84.5532376671645</v>
+      </c>
+      <c r="G61" s="81" t="n">
+        <v>313.139345978751</v>
+      </c>
+      <c r="H61" s="81" t="n">
+        <v>50.7418735661667</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E62" s="81" t="n">
+        <v>78.4853875625591</v>
+      </c>
+      <c r="F62" s="81" t="n">
+        <v>64.5697297500926</v>
+      </c>
+      <c r="G62" s="81" t="n">
+        <v>313.139345978751</v>
+      </c>
+      <c r="H62" s="81" t="n">
+        <v>52.3822213743593</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="81" t="n">
+        <v>6.9462219947249</v>
+      </c>
+      <c r="E63" s="81" t="n">
+        <v>70.9362146628205</v>
+      </c>
+      <c r="F63" s="81" t="n">
+        <v>62.4889623048604</v>
+      </c>
+      <c r="G63" s="81" t="n">
+        <v>219.604758600537</v>
+      </c>
+      <c r="H63" s="81" t="n">
+        <v>47.1246008948643</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="81" t="n">
+        <v>10.1242283656583</v>
+      </c>
+      <c r="E64" s="81" t="n">
+        <v>68.6783220294732</v>
+      </c>
+      <c r="F64" s="81" t="n">
+        <v>58.3417091093635</v>
+      </c>
+      <c r="G64" s="81" t="n">
+        <v>290.470738629556</v>
+      </c>
+      <c r="H64" s="81" t="n">
+        <v>46.0194348931155</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="81" t="n">
+        <v>4.03112887414927</v>
+      </c>
+      <c r="E65" s="81" t="n">
+        <v>62.0144317619595</v>
+      </c>
+      <c r="F65" s="81" t="n">
+        <v>48.4200371747069</v>
+      </c>
+      <c r="G65" s="81" t="n">
+        <v>301.709297171963</v>
+      </c>
+      <c r="H65" s="81" t="n">
+        <v>53.2840525459919</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="81" t="n">
+        <v>10.3077640640442</v>
+      </c>
+      <c r="E66" s="81" t="n">
+        <v>113.325018899226</v>
+      </c>
+      <c r="F66" s="81" t="n">
+        <v>108.004629530405</v>
+      </c>
+      <c r="G66" s="81" t="n">
+        <v>351.774430565952</v>
+      </c>
+      <c r="H66" s="81" t="n">
+        <v>52.4855389723407</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="81" t="n">
+        <v>4.03112887414927</v>
+      </c>
+      <c r="E67" s="81" t="n">
+        <v>83.2490487110252</v>
+      </c>
+      <c r="F67" s="81" t="n">
+        <v>70.8466654120009</v>
+      </c>
+      <c r="G67" s="81" t="n">
+        <v>377.720134491134</v>
+      </c>
+      <c r="H67" s="81" t="n">
+        <v>55.2295013763127</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="81" t="n">
+        <v>8.86002257333467</v>
+      </c>
+      <c r="E68" s="81" t="n">
+        <v>67.9740530515241</v>
+      </c>
+      <c r="F68" s="81" t="n">
+        <v>60.9951128763812</v>
+      </c>
+      <c r="G68" s="81" t="n">
+        <v>186.935817862709</v>
+      </c>
+      <c r="H68" s="81" t="n">
+        <v>41.6515931996603</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="81" t="n">
+        <v>8.86002257333467</v>
+      </c>
+      <c r="E69" s="81" t="n">
+        <v>62.5074802383408</v>
+      </c>
+      <c r="F69" s="81" t="n">
+        <v>53.0220942071651</v>
+      </c>
+      <c r="G69" s="81" t="n">
+        <v>221.439043531171</v>
+      </c>
+      <c r="H69" s="81" t="n">
+        <v>42.7631550936955</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="81" t="n">
+        <v>10.3077640640442</v>
+      </c>
+      <c r="E70" s="81" t="n">
+        <v>80.9480541272444</v>
+      </c>
+      <c r="F70" s="81" t="n">
+        <v>73.5611990114354</v>
+      </c>
+      <c r="G70" s="81" t="n">
+        <v>195.108303257447</v>
+      </c>
+      <c r="H70" s="81" t="n">
+        <v>44.8112316212665</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="81" t="n">
+        <v>4.12310562561766</v>
+      </c>
+      <c r="E71" s="81" t="n">
+        <v>22.598984575984</v>
+      </c>
+      <c r="F71" s="81" t="n">
+        <v>18.3371208208922</v>
+      </c>
+      <c r="G71" s="81" t="n">
+        <v>167.126449133583</v>
+      </c>
+      <c r="H71" s="81" t="n">
+        <v>16.525538023705</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="81" t="n">
+        <v>4.12310562561766</v>
+      </c>
+      <c r="E72" s="81" t="n">
+        <v>55.972921960416</v>
+      </c>
+      <c r="F72" s="81" t="n">
+        <v>42.9534631898291</v>
+      </c>
+      <c r="G72" s="81" t="n">
+        <v>222.733585253774</v>
+      </c>
+      <c r="H72" s="81" t="n">
+        <v>43.9789153464365</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="81" t="n">
+        <v>4.94974746830583</v>
+      </c>
+      <c r="E73" s="81" t="n">
+        <v>15.0787943685371</v>
+      </c>
+      <c r="F73" s="81" t="n">
+        <v>12.6686135479981</v>
+      </c>
+      <c r="G73" s="81" t="n">
+        <v>37.3664287830668</v>
+      </c>
+      <c r="H73" s="81" t="n">
+        <v>7.79226201677903</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E74" s="81" t="n">
+        <v>17.3651817190822</v>
+      </c>
+      <c r="F74" s="81" t="n">
+        <v>15.7518715636586</v>
+      </c>
+      <c r="G74" s="81" t="n">
+        <v>37.5133309638054</v>
+      </c>
+      <c r="H74" s="81" t="n">
+        <v>7.6741167292502</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="81" t="n">
+        <v>4.03112887414927</v>
+      </c>
+      <c r="E75" s="81" t="n">
+        <v>16.3203209191103</v>
+      </c>
+      <c r="F75" s="81" t="n">
+        <v>15.6524758424985</v>
+      </c>
+      <c r="G75" s="81" t="n">
+        <v>34.0771184227775</v>
+      </c>
+      <c r="H75" s="81" t="n">
+        <v>7.28896149372646</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="81" t="n">
+        <v>4.12310562561766</v>
+      </c>
+      <c r="E76" s="81" t="n">
+        <v>18.2286227352397</v>
+      </c>
+      <c r="F76" s="81" t="n">
+        <v>16.3477827242718</v>
+      </c>
+      <c r="G76" s="81" t="n">
+        <v>50.2493781056044</v>
+      </c>
+      <c r="H76" s="81" t="n">
+        <v>9.17228739363338</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="81" t="n">
+        <v>3.20156211871642</v>
+      </c>
+      <c r="E77" s="81" t="n">
+        <v>16.695762919278</v>
+      </c>
+      <c r="F77" s="81" t="n">
+        <v>15.1327459504216</v>
+      </c>
+      <c r="G77" s="81" t="n">
+        <v>73.9949322589054</v>
+      </c>
+      <c r="H77" s="81" t="n">
+        <v>8.61696318145507</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="29" max="16383" man="1"/>
+    <brk id="56" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/tests/testthat/test_data/Results.xlsx
+++ b/tests/testthat/test_data/Results.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Mean Expression" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="H-Score" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Nearest Neighbors" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Count Within" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Slide Summary'!$1:$1</definedName>
@@ -22,12 +23,13 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'Mean Expression'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'H-Score'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'Nearest Neighbors'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'Count Within'!$1:$2</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Slide ID</t>
   </si>
@@ -147,6 +149,24 @@
   </si>
   <si>
     <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of cells within the specified radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within mean</t>
   </si>
 </sst>
 </file>
@@ -4326,4 +4346,8786 @@
     <brk id="56" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>86</v>
+      </c>
+      <c r="G3" s="18" t="n">
+        <v>86</v>
+      </c>
+      <c r="H3" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" s="17" t="n">
+        <v>0.13953488372093</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>86</v>
+      </c>
+      <c r="G4" t="n">
+        <v>86</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>0.186046511627907</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>86</v>
+      </c>
+      <c r="G5" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="H5" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="17" t="n">
+        <v>0.0232558139534884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>86</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>0.0232558139534884</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>86</v>
+      </c>
+      <c r="G7" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="H7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>86</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>86</v>
+      </c>
+      <c r="G9" s="18" t="n">
+        <v>54</v>
+      </c>
+      <c r="H9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <v>0.0116279069767442</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>86</v>
+      </c>
+      <c r="G10" t="n">
+        <v>54</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>0.0232558139534884</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>86</v>
+      </c>
+      <c r="G11" s="18" t="n">
+        <v>835</v>
+      </c>
+      <c r="H11" s="18" t="n">
+        <v>21</v>
+      </c>
+      <c r="I11" s="17" t="n">
+        <v>0.267441860465116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>86</v>
+      </c>
+      <c r="G12" t="n">
+        <v>835</v>
+      </c>
+      <c r="H12" t="n">
+        <v>38</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <v>0.558139534883721</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="G13" s="18" t="n">
+        <v>86</v>
+      </c>
+      <c r="H13" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="17" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>22</v>
+      </c>
+      <c r="G14" t="n">
+        <v>86</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="G15" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="H15" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>22</v>
+      </c>
+      <c r="G16" t="n">
+        <v>22</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="G17" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="H17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>22</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="G19" s="18" t="n">
+        <v>54</v>
+      </c>
+      <c r="H19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>0.0454545454545455</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>22</v>
+      </c>
+      <c r="G20" t="n">
+        <v>54</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="G21" s="18" t="n">
+        <v>835</v>
+      </c>
+      <c r="H21" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>0.318181818181818</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" t="n">
+        <v>22</v>
+      </c>
+      <c r="G22" t="n">
+        <v>835</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>0.545454545454545</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G23" s="18" t="n">
+        <v>86</v>
+      </c>
+      <c r="H23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G24" t="n">
+        <v>86</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G25" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="H25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" t="n">
+        <v>22</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="H27" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20</v>
+      </c>
+      <c r="G28" t="n">
+        <v>20</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" s="10" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" s="18" t="n">
+        <v>54</v>
+      </c>
+      <c r="H29" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>15</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20</v>
+      </c>
+      <c r="G30" t="n">
+        <v>54</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G31" s="18" t="n">
+        <v>835</v>
+      </c>
+      <c r="H31" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="17" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15</v>
+      </c>
+      <c r="F32" t="n">
+        <v>20</v>
+      </c>
+      <c r="G32" t="n">
+        <v>835</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" s="10" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" s="18" t="n">
+        <v>54</v>
+      </c>
+      <c r="G33" s="18" t="n">
+        <v>86</v>
+      </c>
+      <c r="H33" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="17" t="n">
+        <v>0.0185185185185185</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>54</v>
+      </c>
+      <c r="G34" t="n">
+        <v>86</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="10" t="n">
+        <v>0.037037037037037</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" s="18" t="n">
+        <v>54</v>
+      </c>
+      <c r="G35" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="H35" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="17" t="n">
+        <v>0.0185185185185185</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>15</v>
+      </c>
+      <c r="F36" t="n">
+        <v>54</v>
+      </c>
+      <c r="G36" t="n">
+        <v>22</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="10" t="n">
+        <v>0.037037037037037</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" s="18" t="n">
+        <v>54</v>
+      </c>
+      <c r="G37" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="H37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>15</v>
+      </c>
+      <c r="F38" t="n">
+        <v>54</v>
+      </c>
+      <c r="G38" t="n">
+        <v>20</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" s="18" t="n">
+        <v>54</v>
+      </c>
+      <c r="G39" s="18" t="n">
+        <v>54</v>
+      </c>
+      <c r="H39" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="17" t="n">
+        <v>0.037037037037037</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>15</v>
+      </c>
+      <c r="F40" t="n">
+        <v>54</v>
+      </c>
+      <c r="G40" t="n">
+        <v>54</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" s="10" t="n">
+        <v>0.037037037037037</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" s="18" t="n">
+        <v>54</v>
+      </c>
+      <c r="G41" s="18" t="n">
+        <v>835</v>
+      </c>
+      <c r="H41" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I41" s="17" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="n">
+        <v>15</v>
+      </c>
+      <c r="F42" t="n">
+        <v>54</v>
+      </c>
+      <c r="G42" t="n">
+        <v>835</v>
+      </c>
+      <c r="H42" t="n">
+        <v>24</v>
+      </c>
+      <c r="I42" s="10" t="n">
+        <v>0.574074074074074</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" s="18" t="n">
+        <v>835</v>
+      </c>
+      <c r="G43" s="18" t="n">
+        <v>86</v>
+      </c>
+      <c r="H43" s="18" t="n">
+        <v>23</v>
+      </c>
+      <c r="I43" s="17" t="n">
+        <v>0.0275449101796407</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>15</v>
+      </c>
+      <c r="F44" t="n">
+        <v>835</v>
+      </c>
+      <c r="G44" t="n">
+        <v>86</v>
+      </c>
+      <c r="H44" t="n">
+        <v>47</v>
+      </c>
+      <c r="I44" s="10" t="n">
+        <v>0.0574850299401198</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" s="18" t="n">
+        <v>835</v>
+      </c>
+      <c r="G45" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="H45" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I45" s="17" t="n">
+        <v>0.00838323353293413</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>15</v>
+      </c>
+      <c r="F46" t="n">
+        <v>835</v>
+      </c>
+      <c r="G46" t="n">
+        <v>22</v>
+      </c>
+      <c r="H46" t="n">
+        <v>12</v>
+      </c>
+      <c r="I46" s="10" t="n">
+        <v>0.0143712574850299</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" s="18" t="n">
+        <v>835</v>
+      </c>
+      <c r="G47" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="H47" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="17" t="n">
+        <v>0.00119760479041916</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>15</v>
+      </c>
+      <c r="F48" t="n">
+        <v>835</v>
+      </c>
+      <c r="G48" t="n">
+        <v>20</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+      <c r="I48" s="10" t="n">
+        <v>0.0119760479041916</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" s="18" t="n">
+        <v>835</v>
+      </c>
+      <c r="G49" s="18" t="n">
+        <v>54</v>
+      </c>
+      <c r="H49" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I49" s="17" t="n">
+        <v>0.0107784431137725</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>15</v>
+      </c>
+      <c r="F50" t="n">
+        <v>835</v>
+      </c>
+      <c r="G50" t="n">
+        <v>54</v>
+      </c>
+      <c r="H50" t="n">
+        <v>31</v>
+      </c>
+      <c r="I50" s="10" t="n">
+        <v>0.037125748502994</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" s="18" t="n">
+        <v>835</v>
+      </c>
+      <c r="G51" s="18" t="n">
+        <v>835</v>
+      </c>
+      <c r="H51" s="18" t="n">
+        <v>167</v>
+      </c>
+      <c r="I51" s="17" t="n">
+        <v>0.210778443113772</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15</v>
+      </c>
+      <c r="F52" t="n">
+        <v>835</v>
+      </c>
+      <c r="G52" t="n">
+        <v>835</v>
+      </c>
+      <c r="H52" t="n">
+        <v>350</v>
+      </c>
+      <c r="I52" s="10" t="n">
+        <v>0.534131736526946</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G53" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H53" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15</v>
+      </c>
+      <c r="F54" t="n">
+        <v>13</v>
+      </c>
+      <c r="G54" t="n">
+        <v>13</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G55" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H55" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>15</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F57" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G57" s="18" t="n">
+        <v>829</v>
+      </c>
+      <c r="H57" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" s="17" t="n">
+        <v>0.153846153846154</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>15</v>
+      </c>
+      <c r="F58" t="n">
+        <v>13</v>
+      </c>
+      <c r="G58" t="n">
+        <v>829</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+      <c r="I58" s="10" t="n">
+        <v>0.307692307692308</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G59" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>15</v>
+      </c>
+      <c r="F60" t="n">
+        <v>13</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G61" s="18" t="n">
+        <v>897</v>
+      </c>
+      <c r="H61" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" s="17" t="n">
+        <v>0.153846153846154</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15</v>
+      </c>
+      <c r="F62" t="n">
+        <v>13</v>
+      </c>
+      <c r="G62" t="n">
+        <v>897</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+      <c r="I62" s="10" t="n">
+        <v>0.307692307692308</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F63" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H63" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>15</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="n">
+        <v>13</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H65" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="n">
+        <v>15</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="n">
+        <v>8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" s="18" t="n">
+        <v>829</v>
+      </c>
+      <c r="H67" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="17" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>15</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="n">
+        <v>829</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" s="10" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F69" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G69" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="n">
+        <v>15</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F71" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G71" s="18" t="n">
+        <v>897</v>
+      </c>
+      <c r="H71" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" s="17" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8</v>
+      </c>
+      <c r="G72" t="n">
+        <v>897</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" s="10" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" s="18" t="n">
+        <v>829</v>
+      </c>
+      <c r="G73" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H73" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" s="17" t="n">
+        <v>0.00241254523522316</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>15</v>
+      </c>
+      <c r="F74" t="n">
+        <v>829</v>
+      </c>
+      <c r="G74" t="n">
+        <v>13</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+      <c r="I74" s="10" t="n">
+        <v>0.00482509047044632</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" s="18" t="n">
+        <v>829</v>
+      </c>
+      <c r="G75" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H75" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" s="17" t="n">
+        <v>0.00120627261761158</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="n">
+        <v>15</v>
+      </c>
+      <c r="F76" t="n">
+        <v>829</v>
+      </c>
+      <c r="G76" t="n">
+        <v>8</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" s="10" t="n">
+        <v>0.00361881785283474</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F77" s="18" t="n">
+        <v>829</v>
+      </c>
+      <c r="G77" s="18" t="n">
+        <v>829</v>
+      </c>
+      <c r="H77" s="18" t="n">
+        <v>152</v>
+      </c>
+      <c r="I77" s="17" t="n">
+        <v>0.205066344993969</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>15</v>
+      </c>
+      <c r="F78" t="n">
+        <v>829</v>
+      </c>
+      <c r="G78" t="n">
+        <v>829</v>
+      </c>
+      <c r="H78" t="n">
+        <v>342</v>
+      </c>
+      <c r="I78" s="10" t="n">
+        <v>0.51145958986731</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F79" s="18" t="n">
+        <v>829</v>
+      </c>
+      <c r="G79" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>15</v>
+      </c>
+      <c r="F80" t="n">
+        <v>829</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" s="10" t="n">
+        <v>0.00120627261761158</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F81" s="18" t="n">
+        <v>829</v>
+      </c>
+      <c r="G81" s="18" t="n">
+        <v>897</v>
+      </c>
+      <c r="H81" s="18" t="n">
+        <v>158</v>
+      </c>
+      <c r="I81" s="17" t="n">
+        <v>0.214716525934861</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="n">
+        <v>15</v>
+      </c>
+      <c r="F82" t="n">
+        <v>829</v>
+      </c>
+      <c r="G82" t="n">
+        <v>897</v>
+      </c>
+      <c r="H82" t="n">
+        <v>353</v>
+      </c>
+      <c r="I82" s="10" t="n">
+        <v>0.536791314837153</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F83" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H83" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>15</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4</v>
+      </c>
+      <c r="G84" t="n">
+        <v>13</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G85" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H85" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>15</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4</v>
+      </c>
+      <c r="G86" t="n">
+        <v>8</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F87" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G87" s="18" t="n">
+        <v>829</v>
+      </c>
+      <c r="H87" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>15</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4</v>
+      </c>
+      <c r="G88" t="n">
+        <v>829</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" s="10" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F89" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G89" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H89" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>15</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F91" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" s="18" t="n">
+        <v>897</v>
+      </c>
+      <c r="H91" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4</v>
+      </c>
+      <c r="G92" t="n">
+        <v>897</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" s="10" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F93" s="18" t="n">
+        <v>897</v>
+      </c>
+      <c r="G93" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H93" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" s="17" t="n">
+        <v>0.00222965440356745</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>15</v>
+      </c>
+      <c r="F94" t="n">
+        <v>897</v>
+      </c>
+      <c r="G94" t="n">
+        <v>13</v>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+      <c r="I94" s="10" t="n">
+        <v>0.00445930880713489</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F95" s="18" t="n">
+        <v>897</v>
+      </c>
+      <c r="G95" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H95" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" s="17" t="n">
+        <v>0.00111482720178372</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>15</v>
+      </c>
+      <c r="F96" t="n">
+        <v>897</v>
+      </c>
+      <c r="G96" t="n">
+        <v>8</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+      <c r="I96" s="10" t="n">
+        <v>0.00334448160535117</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F97" s="18" t="n">
+        <v>897</v>
+      </c>
+      <c r="G97" s="18" t="n">
+        <v>829</v>
+      </c>
+      <c r="H97" s="18" t="n">
+        <v>160</v>
+      </c>
+      <c r="I97" s="17" t="n">
+        <v>0.198439241917503</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="n">
+        <v>15</v>
+      </c>
+      <c r="F98" t="n">
+        <v>897</v>
+      </c>
+      <c r="G98" t="n">
+        <v>829</v>
+      </c>
+      <c r="H98" t="n">
+        <v>360</v>
+      </c>
+      <c r="I98" s="10" t="n">
+        <v>0.496098104793757</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F99" s="18" t="n">
+        <v>897</v>
+      </c>
+      <c r="G99" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H99" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>15</v>
+      </c>
+      <c r="F100" t="n">
+        <v>897</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" s="10" t="n">
+        <v>0.00111482720178372</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F101" s="18" t="n">
+        <v>897</v>
+      </c>
+      <c r="G101" s="18" t="n">
+        <v>897</v>
+      </c>
+      <c r="H101" s="18" t="n">
+        <v>166</v>
+      </c>
+      <c r="I101" s="17" t="n">
+        <v>0.207357859531773</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="n">
+        <v>15</v>
+      </c>
+      <c r="F102" t="n">
+        <v>897</v>
+      </c>
+      <c r="G102" t="n">
+        <v>897</v>
+      </c>
+      <c r="H102" t="n">
+        <v>375</v>
+      </c>
+      <c r="I102" s="10" t="n">
+        <v>0.52396878483835</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F103" s="18" t="n">
+        <v>88</v>
+      </c>
+      <c r="G103" s="18" t="n">
+        <v>88</v>
+      </c>
+      <c r="H103" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="I103" s="17" t="n">
+        <v>0.159090909090909</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>15</v>
+      </c>
+      <c r="F104" t="n">
+        <v>88</v>
+      </c>
+      <c r="G104" t="n">
+        <v>88</v>
+      </c>
+      <c r="H104" t="n">
+        <v>21</v>
+      </c>
+      <c r="I104" s="10" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F105" s="18" t="n">
+        <v>88</v>
+      </c>
+      <c r="G105" s="18" t="n">
+        <v>84</v>
+      </c>
+      <c r="H105" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" s="17" t="n">
+        <v>0.0113636363636364</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>15</v>
+      </c>
+      <c r="F106" t="n">
+        <v>88</v>
+      </c>
+      <c r="G106" t="n">
+        <v>84</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" s="10" t="n">
+        <v>0.0113636363636364</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F107" s="18" t="n">
+        <v>88</v>
+      </c>
+      <c r="G107" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="H107" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="n">
+        <v>15</v>
+      </c>
+      <c r="F108" t="n">
+        <v>88</v>
+      </c>
+      <c r="G108" t="n">
+        <v>28</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F109" s="18" t="n">
+        <v>88</v>
+      </c>
+      <c r="G109" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="H109" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" s="17" t="n">
+        <v>0.0227272727272727</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="n">
+        <v>15</v>
+      </c>
+      <c r="F110" t="n">
+        <v>88</v>
+      </c>
+      <c r="G110" t="n">
+        <v>80</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" s="10" t="n">
+        <v>0.0227272727272727</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F111" s="18" t="n">
+        <v>88</v>
+      </c>
+      <c r="G111" s="18" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H111" s="18" t="n">
+        <v>23</v>
+      </c>
+      <c r="I111" s="17" t="n">
+        <v>0.318181818181818</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="n">
+        <v>15</v>
+      </c>
+      <c r="F112" t="n">
+        <v>88</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H112" t="n">
+        <v>44</v>
+      </c>
+      <c r="I112" s="10" t="n">
+        <v>0.670454545454545</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F113" s="18" t="n">
+        <v>84</v>
+      </c>
+      <c r="G113" s="18" t="n">
+        <v>88</v>
+      </c>
+      <c r="H113" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" s="17" t="n">
+        <v>0.0119047619047619</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>15</v>
+      </c>
+      <c r="F114" t="n">
+        <v>84</v>
+      </c>
+      <c r="G114" t="n">
+        <v>88</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" s="10" t="n">
+        <v>0.0119047619047619</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F115" s="18" t="n">
+        <v>84</v>
+      </c>
+      <c r="G115" s="18" t="n">
+        <v>84</v>
+      </c>
+      <c r="H115" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I115" s="17" t="n">
+        <v>0.0714285714285714</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>15</v>
+      </c>
+      <c r="F116" t="n">
+        <v>84</v>
+      </c>
+      <c r="G116" t="n">
+        <v>84</v>
+      </c>
+      <c r="H116" t="n">
+        <v>12</v>
+      </c>
+      <c r="I116" s="10" t="n">
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F117" s="18" t="n">
+        <v>84</v>
+      </c>
+      <c r="G117" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="H117" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" t="n">
+        <v>15</v>
+      </c>
+      <c r="F118" t="n">
+        <v>84</v>
+      </c>
+      <c r="G118" t="n">
+        <v>28</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" s="10" t="n">
+        <v>0.0119047619047619</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" s="18" t="n">
+        <v>84</v>
+      </c>
+      <c r="G119" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="H119" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I119" s="17" t="n">
+        <v>0.0357142857142857</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>15</v>
+      </c>
+      <c r="F120" t="n">
+        <v>84</v>
+      </c>
+      <c r="G120" t="n">
+        <v>80</v>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+      <c r="I120" s="10" t="n">
+        <v>0.0952380952380952</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F121" s="18" t="n">
+        <v>84</v>
+      </c>
+      <c r="G121" s="18" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H121" s="18" t="n">
+        <v>23</v>
+      </c>
+      <c r="I121" s="17" t="n">
+        <v>0.297619047619048</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" t="n">
+        <v>15</v>
+      </c>
+      <c r="F122" t="n">
+        <v>84</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H122" t="n">
+        <v>50</v>
+      </c>
+      <c r="I122" s="10" t="n">
+        <v>0.785714285714286</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F123" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="G123" s="18" t="n">
+        <v>88</v>
+      </c>
+      <c r="H123" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>15</v>
+      </c>
+      <c r="F124" t="n">
+        <v>28</v>
+      </c>
+      <c r="G124" t="n">
+        <v>88</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F125" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="G125" s="18" t="n">
+        <v>84</v>
+      </c>
+      <c r="H125" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>15</v>
+      </c>
+      <c r="F126" t="n">
+        <v>28</v>
+      </c>
+      <c r="G126" t="n">
+        <v>84</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" s="10" t="n">
+        <v>0.0357142857142857</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F127" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="G127" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="H127" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" t="n">
+        <v>15</v>
+      </c>
+      <c r="F128" t="n">
+        <v>28</v>
+      </c>
+      <c r="G128" t="n">
+        <v>28</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F129" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="G129" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="H129" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>15</v>
+      </c>
+      <c r="F130" t="n">
+        <v>28</v>
+      </c>
+      <c r="G130" t="n">
+        <v>80</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F131" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="G131" s="18" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H131" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I131" s="17" t="n">
+        <v>0.178571428571429</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="n">
+        <v>15</v>
+      </c>
+      <c r="F132" t="n">
+        <v>28</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+      <c r="I132" s="10" t="n">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F133" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="G133" s="18" t="n">
+        <v>88</v>
+      </c>
+      <c r="H133" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" s="17" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>15</v>
+      </c>
+      <c r="F134" t="n">
+        <v>80</v>
+      </c>
+      <c r="G134" t="n">
+        <v>88</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" s="10" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F135" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="G135" s="18" t="n">
+        <v>84</v>
+      </c>
+      <c r="H135" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I135" s="17" t="n">
+        <v>0.0375</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>15</v>
+      </c>
+      <c r="F136" t="n">
+        <v>80</v>
+      </c>
+      <c r="G136" t="n">
+        <v>84</v>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+      <c r="I136" s="10" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F137" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="G137" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="H137" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" t="n">
+        <v>15</v>
+      </c>
+      <c r="F138" t="n">
+        <v>80</v>
+      </c>
+      <c r="G138" t="n">
+        <v>28</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F139" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="G139" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="H139" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" s="17" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>15</v>
+      </c>
+      <c r="F140" t="n">
+        <v>80</v>
+      </c>
+      <c r="G140" t="n">
+        <v>80</v>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+      <c r="I140" s="10" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F141" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="G141" s="18" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H141" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="I141" s="17" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15</v>
+      </c>
+      <c r="F142" t="n">
+        <v>80</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H142" t="n">
+        <v>49</v>
+      </c>
+      <c r="I142" s="10" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F143" s="18" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G143" s="18" t="n">
+        <v>88</v>
+      </c>
+      <c r="H143" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="I143" s="17" t="n">
+        <v>0.021875</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G144" t="n">
+        <v>88</v>
+      </c>
+      <c r="H144" t="n">
+        <v>55</v>
+      </c>
+      <c r="I144" s="10" t="n">
+        <v>0.04609375</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F145" s="18" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G145" s="18" t="n">
+        <v>84</v>
+      </c>
+      <c r="H145" s="18" t="n">
+        <v>25</v>
+      </c>
+      <c r="I145" s="17" t="n">
+        <v>0.01953125</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>15</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G146" t="n">
+        <v>84</v>
+      </c>
+      <c r="H146" t="n">
+        <v>63</v>
+      </c>
+      <c r="I146" s="10" t="n">
+        <v>0.0515625</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F147" s="18" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G147" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="H147" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I147" s="17" t="n">
+        <v>0.00390625</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" t="n">
+        <v>15</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G148" t="n">
+        <v>28</v>
+      </c>
+      <c r="H148" t="n">
+        <v>12</v>
+      </c>
+      <c r="I148" s="10" t="n">
+        <v>0.009375</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F149" s="18" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G149" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="H149" s="18" t="n">
+        <v>32</v>
+      </c>
+      <c r="I149" s="17" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G150" t="n">
+        <v>80</v>
+      </c>
+      <c r="H150" t="n">
+        <v>67</v>
+      </c>
+      <c r="I150" s="10" t="n">
+        <v>0.053125</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F151" s="18" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G151" s="18" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H151" s="18" t="n">
+        <v>363</v>
+      </c>
+      <c r="I151" s="17" t="n">
+        <v>0.33125</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" t="n">
+        <v>15</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H152" t="n">
+        <v>634</v>
+      </c>
+      <c r="I152" s="10" t="n">
+        <v>0.728125</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F153" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="G153" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="H153" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" s="17" t="n">
+        <v>0.0740740740740741</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15</v>
+      </c>
+      <c r="F154" t="n">
+        <v>27</v>
+      </c>
+      <c r="G154" t="n">
+        <v>27</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+      <c r="I154" s="10" t="n">
+        <v>0.0740740740740741</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F155" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="G155" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="H155" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15</v>
+      </c>
+      <c r="F156" t="n">
+        <v>27</v>
+      </c>
+      <c r="G156" t="n">
+        <v>24</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F157" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="G157" s="18" t="n">
+        <v>514</v>
+      </c>
+      <c r="H157" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" s="17" t="n">
+        <v>0.037037037037037</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" t="n">
+        <v>15</v>
+      </c>
+      <c r="F158" t="n">
+        <v>27</v>
+      </c>
+      <c r="G158" t="n">
+        <v>514</v>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+      <c r="I158" s="10" t="n">
+        <v>0.148148148148148</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F159" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="G159" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="H159" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>15</v>
+      </c>
+      <c r="F160" t="n">
+        <v>27</v>
+      </c>
+      <c r="G160" t="n">
+        <v>12</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F161" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="G161" s="18" t="n">
+        <v>634</v>
+      </c>
+      <c r="H161" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I161" s="17" t="n">
+        <v>0.148148148148148</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" t="n">
+        <v>15</v>
+      </c>
+      <c r="F162" t="n">
+        <v>27</v>
+      </c>
+      <c r="G162" t="n">
+        <v>634</v>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+      <c r="I162" s="10" t="n">
+        <v>0.259259259259259</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F163" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="G163" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="H163" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" t="n">
+        <v>15</v>
+      </c>
+      <c r="F164" t="n">
+        <v>24</v>
+      </c>
+      <c r="G164" t="n">
+        <v>27</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F165" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="G165" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="H165" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>15</v>
+      </c>
+      <c r="F166" t="n">
+        <v>24</v>
+      </c>
+      <c r="G166" t="n">
+        <v>24</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F167" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="G167" s="18" t="n">
+        <v>514</v>
+      </c>
+      <c r="H167" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I167" s="17" t="n">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15</v>
+      </c>
+      <c r="F168" t="n">
+        <v>24</v>
+      </c>
+      <c r="G168" t="n">
+        <v>514</v>
+      </c>
+      <c r="H168" t="n">
+        <v>9</v>
+      </c>
+      <c r="I168" s="10" t="n">
+        <v>0.416666666666667</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F169" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="G169" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="H169" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>15</v>
+      </c>
+      <c r="F170" t="n">
+        <v>24</v>
+      </c>
+      <c r="G170" t="n">
+        <v>12</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F171" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="G171" s="18" t="n">
+        <v>634</v>
+      </c>
+      <c r="H171" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I171" s="17" t="n">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15</v>
+      </c>
+      <c r="F172" t="n">
+        <v>24</v>
+      </c>
+      <c r="G172" t="n">
+        <v>634</v>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+      <c r="I172" s="10" t="n">
+        <v>0.458333333333333</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F173" s="18" t="n">
+        <v>514</v>
+      </c>
+      <c r="G173" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="H173" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" s="17" t="n">
+        <v>0.00194552529182879</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" t="n">
+        <v>15</v>
+      </c>
+      <c r="F174" t="n">
+        <v>514</v>
+      </c>
+      <c r="G174" t="n">
+        <v>27</v>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+      <c r="I174" s="10" t="n">
+        <v>0.00778210116731518</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F175" s="18" t="n">
+        <v>514</v>
+      </c>
+      <c r="G175" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="H175" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I175" s="17" t="n">
+        <v>0.0136186770428016</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>15</v>
+      </c>
+      <c r="F176" t="n">
+        <v>514</v>
+      </c>
+      <c r="G176" t="n">
+        <v>24</v>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+      <c r="I176" s="10" t="n">
+        <v>0.0194552529182879</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F177" s="18" t="n">
+        <v>514</v>
+      </c>
+      <c r="G177" s="18" t="n">
+        <v>514</v>
+      </c>
+      <c r="H177" s="18" t="n">
+        <v>92</v>
+      </c>
+      <c r="I177" s="17" t="n">
+        <v>0.186770428015564</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" t="n">
+        <v>15</v>
+      </c>
+      <c r="F178" t="n">
+        <v>514</v>
+      </c>
+      <c r="G178" t="n">
+        <v>514</v>
+      </c>
+      <c r="H178" t="n">
+        <v>176</v>
+      </c>
+      <c r="I178" s="10" t="n">
+        <v>0.431906614785992</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F179" s="18" t="n">
+        <v>514</v>
+      </c>
+      <c r="G179" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="H179" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I179" s="17" t="n">
+        <v>0.00389105058365759</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>15</v>
+      </c>
+      <c r="F180" t="n">
+        <v>514</v>
+      </c>
+      <c r="G180" t="n">
+        <v>12</v>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+      <c r="I180" s="10" t="n">
+        <v>0.00583657587548638</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F181" s="18" t="n">
+        <v>514</v>
+      </c>
+      <c r="G181" s="18" t="n">
+        <v>634</v>
+      </c>
+      <c r="H181" s="18" t="n">
+        <v>107</v>
+      </c>
+      <c r="I181" s="17" t="n">
+        <v>0.215953307392996</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" t="n">
+        <v>15</v>
+      </c>
+      <c r="F182" t="n">
+        <v>514</v>
+      </c>
+      <c r="G182" t="n">
+        <v>634</v>
+      </c>
+      <c r="H182" t="n">
+        <v>205</v>
+      </c>
+      <c r="I182" s="10" t="n">
+        <v>0.490272373540856</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F183" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G183" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="H183" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" t="n">
+        <v>15</v>
+      </c>
+      <c r="F184" t="n">
+        <v>12</v>
+      </c>
+      <c r="G184" t="n">
+        <v>27</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F185" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G185" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="H185" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>15</v>
+      </c>
+      <c r="F186" t="n">
+        <v>12</v>
+      </c>
+      <c r="G186" t="n">
+        <v>24</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F187" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G187" s="18" t="n">
+        <v>514</v>
+      </c>
+      <c r="H187" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I187" s="17" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" t="n">
+        <v>15</v>
+      </c>
+      <c r="F188" t="n">
+        <v>12</v>
+      </c>
+      <c r="G188" t="n">
+        <v>514</v>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
+      <c r="I188" s="10" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F189" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G189" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="H189" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" t="n">
+        <v>15</v>
+      </c>
+      <c r="F190" t="n">
+        <v>12</v>
+      </c>
+      <c r="G190" t="n">
+        <v>12</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F191" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G191" s="18" t="n">
+        <v>634</v>
+      </c>
+      <c r="H191" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I191" s="17" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" t="n">
+        <v>15</v>
+      </c>
+      <c r="F192" t="n">
+        <v>12</v>
+      </c>
+      <c r="G192" t="n">
+        <v>634</v>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+      <c r="I192" s="10" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F193" s="18" t="n">
+        <v>634</v>
+      </c>
+      <c r="G193" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="H193" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I193" s="17" t="n">
+        <v>0.00630914826498423</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" t="n">
+        <v>15</v>
+      </c>
+      <c r="F194" t="n">
+        <v>634</v>
+      </c>
+      <c r="G194" t="n">
+        <v>27</v>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+      <c r="I194" s="10" t="n">
+        <v>0.0110410094637224</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F195" s="18" t="n">
+        <v>634</v>
+      </c>
+      <c r="G195" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="H195" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I195" s="17" t="n">
+        <v>0.0110410094637224</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="n">
+        <v>15</v>
+      </c>
+      <c r="F196" t="n">
+        <v>634</v>
+      </c>
+      <c r="G196" t="n">
+        <v>24</v>
+      </c>
+      <c r="H196" t="n">
+        <v>11</v>
+      </c>
+      <c r="I196" s="10" t="n">
+        <v>0.0173501577287066</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B197" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F197" s="18" t="n">
+        <v>634</v>
+      </c>
+      <c r="G197" s="18" t="n">
+        <v>514</v>
+      </c>
+      <c r="H197" s="18" t="n">
+        <v>107</v>
+      </c>
+      <c r="I197" s="17" t="n">
+        <v>0.175078864353312</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" t="n">
+        <v>15</v>
+      </c>
+      <c r="F198" t="n">
+        <v>634</v>
+      </c>
+      <c r="G198" t="n">
+        <v>514</v>
+      </c>
+      <c r="H198" t="n">
+        <v>205</v>
+      </c>
+      <c r="I198" s="10" t="n">
+        <v>0.397476340694006</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F199" s="18" t="n">
+        <v>634</v>
+      </c>
+      <c r="G199" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="H199" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I199" s="17" t="n">
+        <v>0.00315457413249211</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" t="n">
+        <v>15</v>
+      </c>
+      <c r="F200" t="n">
+        <v>634</v>
+      </c>
+      <c r="G200" t="n">
+        <v>12</v>
+      </c>
+      <c r="H200" t="n">
+        <v>3</v>
+      </c>
+      <c r="I200" s="10" t="n">
+        <v>0.00473186119873817</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F201" s="18" t="n">
+        <v>634</v>
+      </c>
+      <c r="G201" s="18" t="n">
+        <v>634</v>
+      </c>
+      <c r="H201" s="18" t="n">
+        <v>126</v>
+      </c>
+      <c r="I201" s="17" t="n">
+        <v>0.205047318611987</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" t="n">
+        <v>15</v>
+      </c>
+      <c r="F202" t="n">
+        <v>634</v>
+      </c>
+      <c r="G202" t="n">
+        <v>634</v>
+      </c>
+      <c r="H202" t="n">
+        <v>240</v>
+      </c>
+      <c r="I202" s="10" t="n">
+        <v>0.457413249211356</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F203" s="18" t="n">
+        <v>108</v>
+      </c>
+      <c r="G203" s="18" t="n">
+        <v>108</v>
+      </c>
+      <c r="H203" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I203" s="17" t="n">
+        <v>0.0555555555555556</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" t="n">
+        <v>15</v>
+      </c>
+      <c r="F204" t="n">
+        <v>108</v>
+      </c>
+      <c r="G204" t="n">
+        <v>108</v>
+      </c>
+      <c r="H204" t="n">
+        <v>16</v>
+      </c>
+      <c r="I204" s="10" t="n">
+        <v>0.148148148148148</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F205" s="18" t="n">
+        <v>108</v>
+      </c>
+      <c r="G205" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="H205" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" t="n">
+        <v>15</v>
+      </c>
+      <c r="F206" t="n">
+        <v>108</v>
+      </c>
+      <c r="G206" t="n">
+        <v>43</v>
+      </c>
+      <c r="H206" t="n">
+        <v>3</v>
+      </c>
+      <c r="I206" s="10" t="n">
+        <v>0.0277777777777778</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F207" s="18" t="n">
+        <v>108</v>
+      </c>
+      <c r="G207" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H207" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" t="n">
+        <v>15</v>
+      </c>
+      <c r="F208" t="n">
+        <v>108</v>
+      </c>
+      <c r="G208" t="n">
+        <v>13</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F209" s="18" t="n">
+        <v>108</v>
+      </c>
+      <c r="G209" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="H209" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="n">
+        <v>15</v>
+      </c>
+      <c r="F210" t="n">
+        <v>108</v>
+      </c>
+      <c r="G210" t="n">
+        <v>98</v>
+      </c>
+      <c r="H210" t="n">
+        <v>7</v>
+      </c>
+      <c r="I210" s="10" t="n">
+        <v>0.0648148148148148</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F211" s="18" t="n">
+        <v>108</v>
+      </c>
+      <c r="G211" s="18" t="n">
+        <v>1202</v>
+      </c>
+      <c r="H211" s="18" t="n">
+        <v>17</v>
+      </c>
+      <c r="I211" s="17" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" t="n">
+        <v>15</v>
+      </c>
+      <c r="F212" t="n">
+        <v>108</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1202</v>
+      </c>
+      <c r="H212" t="n">
+        <v>47</v>
+      </c>
+      <c r="I212" s="10" t="n">
+        <v>0.555555555555556</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F213" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="G213" s="18" t="n">
+        <v>108</v>
+      </c>
+      <c r="H213" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" t="n">
+        <v>15</v>
+      </c>
+      <c r="F214" t="n">
+        <v>43</v>
+      </c>
+      <c r="G214" t="n">
+        <v>108</v>
+      </c>
+      <c r="H214" t="n">
+        <v>3</v>
+      </c>
+      <c r="I214" s="10" t="n">
+        <v>0.0697674418604651</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F215" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="G215" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="H215" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I215" s="17" t="n">
+        <v>0.0465116279069767</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" t="n">
+        <v>15</v>
+      </c>
+      <c r="F216" t="n">
+        <v>43</v>
+      </c>
+      <c r="G216" t="n">
+        <v>43</v>
+      </c>
+      <c r="H216" t="n">
+        <v>4</v>
+      </c>
+      <c r="I216" s="10" t="n">
+        <v>0.0930232558139535</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E217" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F217" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="G217" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H217" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218" t="n">
+        <v>15</v>
+      </c>
+      <c r="F218" t="n">
+        <v>43</v>
+      </c>
+      <c r="G218" t="n">
+        <v>13</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F219" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="G219" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="H219" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" s="17" t="n">
+        <v>0.0232558139534884</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" t="n">
+        <v>15</v>
+      </c>
+      <c r="F220" t="n">
+        <v>43</v>
+      </c>
+      <c r="G220" t="n">
+        <v>98</v>
+      </c>
+      <c r="H220" t="n">
+        <v>4</v>
+      </c>
+      <c r="I220" s="10" t="n">
+        <v>0.0930232558139535</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F221" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="G221" s="18" t="n">
+        <v>1202</v>
+      </c>
+      <c r="H221" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="I221" s="17" t="n">
+        <v>0.395348837209302</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" t="n">
+        <v>15</v>
+      </c>
+      <c r="F222" t="n">
+        <v>43</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1202</v>
+      </c>
+      <c r="H222" t="n">
+        <v>29</v>
+      </c>
+      <c r="I222" s="10" t="n">
+        <v>0.953488372093023</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F223" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G223" s="18" t="n">
+        <v>108</v>
+      </c>
+      <c r="H223" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" t="n">
+        <v>15</v>
+      </c>
+      <c r="F224" t="n">
+        <v>13</v>
+      </c>
+      <c r="G224" t="n">
+        <v>108</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F225" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G225" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="H225" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" t="n">
+        <v>15</v>
+      </c>
+      <c r="F226" t="n">
+        <v>13</v>
+      </c>
+      <c r="G226" t="n">
+        <v>43</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F227" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G227" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H227" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" t="n">
+        <v>15</v>
+      </c>
+      <c r="F228" t="n">
+        <v>13</v>
+      </c>
+      <c r="G228" t="n">
+        <v>13</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E229" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F229" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G229" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="H229" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" t="n">
+        <v>15</v>
+      </c>
+      <c r="F230" t="n">
+        <v>13</v>
+      </c>
+      <c r="G230" t="n">
+        <v>98</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" s="10" t="n">
+        <v>0.0769230769230769</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F231" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G231" s="18" t="n">
+        <v>1202</v>
+      </c>
+      <c r="H231" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232" t="n">
+        <v>15</v>
+      </c>
+      <c r="F232" t="n">
+        <v>13</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1202</v>
+      </c>
+      <c r="H232" t="n">
+        <v>4</v>
+      </c>
+      <c r="I232" s="10" t="n">
+        <v>0.307692307692308</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F233" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="G233" s="18" t="n">
+        <v>108</v>
+      </c>
+      <c r="H233" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" t="n">
+        <v>15</v>
+      </c>
+      <c r="F234" t="n">
+        <v>98</v>
+      </c>
+      <c r="G234" t="n">
+        <v>108</v>
+      </c>
+      <c r="H234" t="n">
+        <v>6</v>
+      </c>
+      <c r="I234" s="10" t="n">
+        <v>0.0714285714285714</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F235" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="G235" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="H235" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" s="17" t="n">
+        <v>0.0102040816326531</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" t="n">
+        <v>15</v>
+      </c>
+      <c r="F236" t="n">
+        <v>98</v>
+      </c>
+      <c r="G236" t="n">
+        <v>43</v>
+      </c>
+      <c r="H236" t="n">
+        <v>4</v>
+      </c>
+      <c r="I236" s="10" t="n">
+        <v>0.0408163265306122</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F237" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="G237" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H237" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238" t="n">
+        <v>15</v>
+      </c>
+      <c r="F238" t="n">
+        <v>98</v>
+      </c>
+      <c r="G238" t="n">
+        <v>13</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" s="10" t="n">
+        <v>0.0102040816326531</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F239" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="G239" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="H239" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I239" s="17" t="n">
+        <v>0.0612244897959184</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240" t="n">
+        <v>15</v>
+      </c>
+      <c r="F240" t="n">
+        <v>98</v>
+      </c>
+      <c r="G240" t="n">
+        <v>98</v>
+      </c>
+      <c r="H240" t="n">
+        <v>6</v>
+      </c>
+      <c r="I240" s="10" t="n">
+        <v>0.0612244897959184</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E241" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F241" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="G241" s="18" t="n">
+        <v>1202</v>
+      </c>
+      <c r="H241" s="18" t="n">
+        <v>21</v>
+      </c>
+      <c r="I241" s="17" t="n">
+        <v>0.255102040816327</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" t="s">
+        <v>11</v>
+      </c>
+      <c r="E242" t="n">
+        <v>15</v>
+      </c>
+      <c r="F242" t="n">
+        <v>98</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1202</v>
+      </c>
+      <c r="H242" t="n">
+        <v>45</v>
+      </c>
+      <c r="I242" s="10" t="n">
+        <v>0.653061224489796</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D243" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F243" s="18" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G243" s="18" t="n">
+        <v>108</v>
+      </c>
+      <c r="H243" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="I243" s="17" t="n">
+        <v>0.0149750415973378</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244" t="n">
+        <v>15</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G244" t="n">
+        <v>108</v>
+      </c>
+      <c r="H244" t="n">
+        <v>57</v>
+      </c>
+      <c r="I244" s="10" t="n">
+        <v>0.0499168053244592</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F245" s="18" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G245" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="H245" s="18" t="n">
+        <v>17</v>
+      </c>
+      <c r="I245" s="17" t="n">
+        <v>0.0141430948419301</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" t="n">
+        <v>15</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G246" t="n">
+        <v>43</v>
+      </c>
+      <c r="H246" t="n">
+        <v>41</v>
+      </c>
+      <c r="I246" s="10" t="n">
+        <v>0.0341098169717138</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D247" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F247" s="18" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G247" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H247" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s">
+        <v>10</v>
+      </c>
+      <c r="E248" t="n">
+        <v>15</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G248" t="n">
+        <v>13</v>
+      </c>
+      <c r="H248" t="n">
+        <v>4</v>
+      </c>
+      <c r="I248" s="10" t="n">
+        <v>0.00332778702163062</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B249" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F249" s="18" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G249" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="H249" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="I249" s="17" t="n">
+        <v>0.0207986688851913</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" t="n">
+        <v>15</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G250" t="n">
+        <v>98</v>
+      </c>
+      <c r="H250" t="n">
+        <v>62</v>
+      </c>
+      <c r="I250" s="10" t="n">
+        <v>0.0532445923460899</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D251" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E251" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F251" s="18" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G251" s="18" t="n">
+        <v>1202</v>
+      </c>
+      <c r="H251" s="18" t="n">
+        <v>319</v>
+      </c>
+      <c r="I251" s="17" t="n">
+        <v>0.307820299500832</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" t="n">
+        <v>15</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1202</v>
+      </c>
+      <c r="H252" t="n">
+        <v>607</v>
+      </c>
+      <c r="I252" s="10" t="n">
+        <v>0.743760399334443</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F253" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="G253" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="H253" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254" t="n">
+        <v>15</v>
+      </c>
+      <c r="F254" t="n">
+        <v>18</v>
+      </c>
+      <c r="G254" t="n">
+        <v>18</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F255" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="G255" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H255" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" t="n">
+        <v>15</v>
+      </c>
+      <c r="F256" t="n">
+        <v>18</v>
+      </c>
+      <c r="G256" t="n">
+        <v>7</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E257" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F257" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="G257" s="18" t="n">
+        <v>532</v>
+      </c>
+      <c r="H257" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I257" s="17" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" t="s">
+        <v>10</v>
+      </c>
+      <c r="E258" t="n">
+        <v>15</v>
+      </c>
+      <c r="F258" t="n">
+        <v>18</v>
+      </c>
+      <c r="G258" t="n">
+        <v>532</v>
+      </c>
+      <c r="H258" t="n">
+        <v>4</v>
+      </c>
+      <c r="I258" s="10" t="n">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F259" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="G259" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H259" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" t="n">
+        <v>15</v>
+      </c>
+      <c r="F260" t="n">
+        <v>18</v>
+      </c>
+      <c r="G260" t="n">
+        <v>5</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F261" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="G261" s="18" t="n">
+        <v>607</v>
+      </c>
+      <c r="H261" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I261" s="17" t="n">
+        <v>0.222222222222222</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262" t="n">
+        <v>15</v>
+      </c>
+      <c r="F262" t="n">
+        <v>18</v>
+      </c>
+      <c r="G262" t="n">
+        <v>607</v>
+      </c>
+      <c r="H262" t="n">
+        <v>5</v>
+      </c>
+      <c r="I262" s="10" t="n">
+        <v>0.444444444444444</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F263" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G263" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="H263" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264" t="n">
+        <v>15</v>
+      </c>
+      <c r="F264" t="n">
+        <v>7</v>
+      </c>
+      <c r="G264" t="n">
+        <v>18</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F265" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G265" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H265" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" t="n">
+        <v>15</v>
+      </c>
+      <c r="F266" t="n">
+        <v>7</v>
+      </c>
+      <c r="G266" t="n">
+        <v>7</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E267" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F267" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G267" s="18" t="n">
+        <v>532</v>
+      </c>
+      <c r="H267" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" t="s">
+        <v>10</v>
+      </c>
+      <c r="E268" t="n">
+        <v>15</v>
+      </c>
+      <c r="F268" t="n">
+        <v>7</v>
+      </c>
+      <c r="G268" t="n">
+        <v>532</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" s="10" t="n">
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F269" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G269" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H269" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270" t="n">
+        <v>15</v>
+      </c>
+      <c r="F270" t="n">
+        <v>7</v>
+      </c>
+      <c r="G270" t="n">
+        <v>5</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E271" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F271" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G271" s="18" t="n">
+        <v>607</v>
+      </c>
+      <c r="H271" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I271" s="17" t="n">
+        <v>0.285714285714286</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" t="s">
+        <v>11</v>
+      </c>
+      <c r="E272" t="n">
+        <v>15</v>
+      </c>
+      <c r="F272" t="n">
+        <v>7</v>
+      </c>
+      <c r="G272" t="n">
+        <v>607</v>
+      </c>
+      <c r="H272" t="n">
+        <v>3</v>
+      </c>
+      <c r="I272" s="10" t="n">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F273" s="18" t="n">
+        <v>532</v>
+      </c>
+      <c r="G273" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="H273" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I273" s="17" t="n">
+        <v>0.0056390977443609</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" t="n">
+        <v>15</v>
+      </c>
+      <c r="F274" t="n">
+        <v>532</v>
+      </c>
+      <c r="G274" t="n">
+        <v>18</v>
+      </c>
+      <c r="H274" t="n">
+        <v>6</v>
+      </c>
+      <c r="I274" s="10" t="n">
+        <v>0.0112781954887218</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F275" s="18" t="n">
+        <v>532</v>
+      </c>
+      <c r="G275" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H275" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D276" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" t="n">
+        <v>15</v>
+      </c>
+      <c r="F276" t="n">
+        <v>532</v>
+      </c>
+      <c r="G276" t="n">
+        <v>7</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" s="10" t="n">
+        <v>0.0018796992481203</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E277" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F277" s="18" t="n">
+        <v>532</v>
+      </c>
+      <c r="G277" s="18" t="n">
+        <v>532</v>
+      </c>
+      <c r="H277" s="18" t="n">
+        <v>103</v>
+      </c>
+      <c r="I277" s="17" t="n">
+        <v>0.218045112781955</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" t="s">
+        <v>10</v>
+      </c>
+      <c r="E278" t="n">
+        <v>15</v>
+      </c>
+      <c r="F278" t="n">
+        <v>532</v>
+      </c>
+      <c r="G278" t="n">
+        <v>532</v>
+      </c>
+      <c r="H278" t="n">
+        <v>202</v>
+      </c>
+      <c r="I278" s="10" t="n">
+        <v>0.473684210526316</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E279" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F279" s="18" t="n">
+        <v>532</v>
+      </c>
+      <c r="G279" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H279" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" t="n">
+        <v>15</v>
+      </c>
+      <c r="F280" t="n">
+        <v>532</v>
+      </c>
+      <c r="G280" t="n">
+        <v>5</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F281" s="18" t="n">
+        <v>532</v>
+      </c>
+      <c r="G281" s="18" t="n">
+        <v>607</v>
+      </c>
+      <c r="H281" s="18" t="n">
+        <v>109</v>
+      </c>
+      <c r="I281" s="17" t="n">
+        <v>0.231203007518797</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" t="s">
+        <v>11</v>
+      </c>
+      <c r="E282" t="n">
+        <v>15</v>
+      </c>
+      <c r="F282" t="n">
+        <v>532</v>
+      </c>
+      <c r="G282" t="n">
+        <v>607</v>
+      </c>
+      <c r="H282" t="n">
+        <v>209</v>
+      </c>
+      <c r="I282" s="10" t="n">
+        <v>0.505639097744361</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B283" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D283" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F283" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G283" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="H283" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D284" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284" t="n">
+        <v>15</v>
+      </c>
+      <c r="F284" t="n">
+        <v>5</v>
+      </c>
+      <c r="G284" t="n">
+        <v>18</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F285" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G285" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H285" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" t="n">
+        <v>15</v>
+      </c>
+      <c r="F286" t="n">
+        <v>5</v>
+      </c>
+      <c r="G286" t="n">
+        <v>7</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D287" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E287" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F287" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G287" s="18" t="n">
+        <v>532</v>
+      </c>
+      <c r="H287" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D288" t="s">
+        <v>10</v>
+      </c>
+      <c r="E288" t="n">
+        <v>15</v>
+      </c>
+      <c r="F288" t="n">
+        <v>5</v>
+      </c>
+      <c r="G288" t="n">
+        <v>532</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C289" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E289" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F289" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G289" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H289" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D290" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290" t="n">
+        <v>15</v>
+      </c>
+      <c r="F290" t="n">
+        <v>5</v>
+      </c>
+      <c r="G290" t="n">
+        <v>5</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B291" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F291" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G291" s="18" t="n">
+        <v>607</v>
+      </c>
+      <c r="H291" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B292" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292" t="s">
+        <v>11</v>
+      </c>
+      <c r="E292" t="n">
+        <v>15</v>
+      </c>
+      <c r="F292" t="n">
+        <v>5</v>
+      </c>
+      <c r="G292" t="n">
+        <v>607</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B293" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D293" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E293" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F293" s="18" t="n">
+        <v>607</v>
+      </c>
+      <c r="G293" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="H293" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I293" s="17" t="n">
+        <v>0.00658978583196046</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B294" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s">
+        <v>8</v>
+      </c>
+      <c r="E294" t="n">
+        <v>15</v>
+      </c>
+      <c r="F294" t="n">
+        <v>607</v>
+      </c>
+      <c r="G294" t="n">
+        <v>18</v>
+      </c>
+      <c r="H294" t="n">
+        <v>8</v>
+      </c>
+      <c r="I294" s="10" t="n">
+        <v>0.0131795716639209</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B295" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F295" s="18" t="n">
+        <v>607</v>
+      </c>
+      <c r="G295" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H295" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I295" s="17" t="n">
+        <v>0.00329489291598023</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296" t="n">
+        <v>15</v>
+      </c>
+      <c r="F296" t="n">
+        <v>607</v>
+      </c>
+      <c r="G296" t="n">
+        <v>7</v>
+      </c>
+      <c r="H296" t="n">
+        <v>3</v>
+      </c>
+      <c r="I296" s="10" t="n">
+        <v>0.00494233937397035</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D297" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E297" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F297" s="18" t="n">
+        <v>607</v>
+      </c>
+      <c r="G297" s="18" t="n">
+        <v>532</v>
+      </c>
+      <c r="H297" s="18" t="n">
+        <v>109</v>
+      </c>
+      <c r="I297" s="17" t="n">
+        <v>0.202635914332784</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s">
+        <v>10</v>
+      </c>
+      <c r="E298" t="n">
+        <v>15</v>
+      </c>
+      <c r="F298" t="n">
+        <v>607</v>
+      </c>
+      <c r="G298" t="n">
+        <v>532</v>
+      </c>
+      <c r="H298" t="n">
+        <v>215</v>
+      </c>
+      <c r="I298" s="10" t="n">
+        <v>0.443163097199341</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B299" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D299" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F299" s="18" t="n">
+        <v>607</v>
+      </c>
+      <c r="G299" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H299" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" t="n">
+        <v>15</v>
+      </c>
+      <c r="F300" t="n">
+        <v>607</v>
+      </c>
+      <c r="G300" t="n">
+        <v>5</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B301" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D301" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F301" s="18" t="n">
+        <v>607</v>
+      </c>
+      <c r="G301" s="18" t="n">
+        <v>607</v>
+      </c>
+      <c r="H301" s="18" t="n">
+        <v>121</v>
+      </c>
+      <c r="I301" s="17" t="n">
+        <v>0.224052718286656</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B302" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D302" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E302" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F302" s="14" t="n">
+        <v>607</v>
+      </c>
+      <c r="G302" s="14" t="n">
+        <v>607</v>
+      </c>
+      <c r="H302" s="14" t="n">
+        <v>229</v>
+      </c>
+      <c r="I302" s="13" t="n">
+        <v>0.484349258649094</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="0" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <rowBreaks count="11" manualBreakCount="11">
+    <brk id="28" max="16383" man="1"/>
+    <brk id="54" max="16383" man="1"/>
+    <brk id="80" max="16383" man="1"/>
+    <brk id="106" max="16383" man="1"/>
+    <brk id="132" max="16383" man="1"/>
+    <brk id="158" max="16383" man="1"/>
+    <brk id="184" max="16383" man="1"/>
+    <brk id="210" max="16383" man="1"/>
+    <brk id="236" max="16383" man="1"/>
+    <brk id="262" max="16383" man="1"/>
+    <brk id="288" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
 </file>
--- a/tests/testthat/test_data/Results.xlsx
+++ b/tests/testthat/test_data/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\phenoptrReports\tests\testthat\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\phenoptrReports\tests\testthat\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFD35CA-5E4F-411F-AB6B-035C79537070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF79ED4-BE91-4F58-9FD4-860E1C3DA214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12384" yWindow="1668" windowWidth="13512" windowHeight="12252" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="2016" windowWidth="13512" windowHeight="12252" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Slide Summary" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Cell Percents" sheetId="3" r:id="rId3"/>
     <sheet name="Cell Densities" sheetId="4" r:id="rId4"/>
     <sheet name="Mean Expression" sheetId="5" r:id="rId5"/>
-    <sheet name="H-Score" sheetId="6" r:id="rId6"/>
-    <sheet name="H-Score CD8+" sheetId="7" r:id="rId7"/>
-    <sheet name="H-Score CK+_Membrane PDL1 (Opal" sheetId="8" r:id="rId8"/>
+    <sheet name="H-Score, PDL1" sheetId="6" r:id="rId6"/>
+    <sheet name="H-Score, PDL1, CD8+" sheetId="7" r:id="rId7"/>
+    <sheet name="H-Score, PDL1, CK+_PDL1&gt;1" sheetId="8" r:id="rId8"/>
     <sheet name="Nearest Neighbors" sheetId="9" r:id="rId9"/>
     <sheet name="Count Within" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -29,9 +29,9 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Cell Densities'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Cell Percents'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'Count Within'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'H-Score'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'H-Score CD8+'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'H-Score CK+_Membrane PDL1 (Opal'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'H-Score, PDL1'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'H-Score, PDL1, CD8+'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'H-Score, PDL1, CK+_PDL1&gt;1'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'Mean Expression'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'Nearest Neighbors'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Slide Summary'!$1:$1</definedName>
@@ -20641,7 +20641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -20911,7 +20911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21324,7 +21326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21737,7 +21741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22150,7 +22156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I326"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
